--- a/CE04OSBP/Omaha_Cal_Info_CE04OSBP_00001.xlsx
+++ b/CE04OSBP/Omaha_Cal_Info_CE04OSBP_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Test and Commissioning OOI\Cabled Instruments\Repaired GIT 20150715\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="72" yWindow="444" windowWidth="14064" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="75" yWindow="450" windowWidth="14070" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="ACS140_CC_tcarray" sheetId="3" r:id="rId3"/>
     <sheet name="ACS140_CC_taarray" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="75">
   <si>
     <t>Ref Des</t>
   </si>
@@ -70,9 +65,6 @@
   </si>
   <si>
     <t>Calibration Cofficient Value</t>
-  </si>
-  <si>
-    <t>CE04OSBP-0001</t>
   </si>
   <si>
     <t>22:00Z</t>
@@ -242,17 +234,26 @@
   <si>
     <t>SheetRef:ACS140_CC_taarray</t>
   </si>
+  <si>
+    <t>SN0005</t>
+  </si>
+  <si>
+    <t>SN0045</t>
+  </si>
+  <si>
+    <t>16P71176-7231</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -331,8 +332,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +375,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -382,10 +408,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,20 +527,22 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -560,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,10 +621,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,7 +655,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -803,21 +830,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,12 +895,12 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+      <c r="B2" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -881,22 +909,22 @@
         <v>41834</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="36">
@@ -921,12 +949,12 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -935,22 +963,22 @@
         <v>41834</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="L3" s="36">
         <f>((LEFT(G3,(FIND("°",G3,1)-1)))+(MID(G3,(FIND("°",G3,1)+1),(FIND("'",G3,1))-(FIND("°",G3,1)+1))/60))*(IF(RIGHT(G3,1)="N",1,-1))</f>
@@ -961,7 +989,7 @@
         <v>-124.95373333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="4"/>
@@ -973,7 +1001,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
@@ -985,7 +1013,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -997,7 +1025,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -1009,7 +1037,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
@@ -1021,13 +1049,13 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="12"/>
     </row>
   </sheetData>
@@ -1036,26 +1064,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.77734375" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="14.44140625" style="20"/>
+    <col min="1" max="1" width="33.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.7109375" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1103,18 +1131,18 @@
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="32"/>
@@ -1139,7 +1167,7 @@
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="30"/>
@@ -1167,12 +1195,12 @@
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C5" s="30">
         <v>1</v>
@@ -1181,7 +1209,7 @@
         <v>1249</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="32">
         <v>6</v>
@@ -1207,7 +1235,7 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="33"/>
       <c r="C6" s="30"/>
@@ -1235,12 +1263,12 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
@@ -1249,7 +1277,7 @@
         <v>18153</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="32">
         <v>44.369586666666599</v>
@@ -1275,12 +1303,12 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C8" s="35">
         <v>1</v>
@@ -1289,7 +1317,7 @@
         <v>18153</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="32">
         <v>124.953736666666</v>
@@ -1315,12 +1343,12 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C9" s="35">
         <v>1</v>
@@ -1329,7 +1357,7 @@
         <v>18153</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="32">
         <v>0.45</v>
@@ -1355,12 +1383,12 @@
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C10" s="35">
         <v>1</v>
@@ -1369,7 +1397,7 @@
         <v>18153</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="32">
         <v>0.45</v>
@@ -1395,12 +1423,12 @@
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C11" s="35">
         <v>1</v>
@@ -1409,7 +1437,7 @@
         <v>18153</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="32">
         <v>0.45</v>
@@ -1435,12 +1463,12 @@
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C12" s="35">
         <v>1</v>
@@ -1449,7 +1477,7 @@
         <v>18153</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="32">
         <v>0.45</v>
@@ -1475,7 +1503,7 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -1503,21 +1531,21 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C14" s="30">
         <v>1</v>
       </c>
-      <c r="D14" s="35">
-        <v>7249</v>
+      <c r="D14" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="32">
         <v>44.369586666666599</v>
@@ -1543,21 +1571,21 @@
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="30">
         <v>1</v>
       </c>
-      <c r="D15" s="35">
-        <v>7249</v>
+      <c r="D15" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="32">
         <v>-124.953736666666</v>
@@ -1583,7 +1611,7 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="33"/>
       <c r="C16" s="30"/>
@@ -1611,21 +1639,21 @@
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="30">
         <v>1</v>
       </c>
-      <c r="D17" s="30">
-        <v>134</v>
+      <c r="D17" s="37">
+        <v>133</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="31">
         <v>44.369586666666599</v>
@@ -1651,21 +1679,21 @@
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C18" s="30">
         <v>1</v>
       </c>
-      <c r="D18" s="30">
-        <v>134</v>
+      <c r="D18" s="37">
+        <v>133</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="32">
         <v>-124.953736666666</v>
@@ -1691,24 +1719,24 @@
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C19" s="30">
         <v>1</v>
       </c>
-      <c r="D19" s="30">
-        <v>134</v>
+      <c r="D19" s="37">
+        <v>133</v>
       </c>
       <c r="E19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>36</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -1731,7 +1759,7 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="30"/>
       <c r="B20" s="33"/>
       <c r="C20" s="30"/>
@@ -1759,12 +1787,12 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="35">
         <v>1</v>
@@ -1773,7 +1801,7 @@
         <v>8159</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="32">
         <v>44.369586666666599</v>
@@ -1799,12 +1827,12 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C22" s="35">
         <v>1</v>
@@ -1813,7 +1841,7 @@
         <v>8159</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="32">
         <v>-124.953736666666</v>
@@ -1839,7 +1867,7 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="33"/>
       <c r="C23" s="30"/>
@@ -1867,21 +1895,21 @@
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="30">
         <v>1</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="38">
         <v>3073</v>
@@ -1907,21 +1935,21 @@
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C25" s="30">
         <v>1</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="38">
         <v>44327</v>
@@ -1947,21 +1975,21 @@
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C26" s="30">
         <v>1</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>40</v>
       </c>
       <c r="F26" s="38">
         <v>19706</v>
@@ -1987,21 +2015,21 @@
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C27" s="30">
         <v>1</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="38">
         <v>34</v>
@@ -2027,21 +2055,21 @@
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C28" s="30">
         <v>1</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="32">
         <v>15.79</v>
@@ -2067,21 +2095,21 @@
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C29" s="30">
         <v>1</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" s="32">
         <v>8.3799999999999999E-2</v>
@@ -2107,21 +2135,21 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C30" s="30">
         <v>1</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="32">
         <v>0.2611</v>
@@ -2147,21 +2175,21 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="30">
         <v>1</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="32">
         <v>-0.82699999999999996</v>
@@ -2187,7 +2215,7 @@
       <c r="Y31" s="18"/>
       <c r="Z31" s="18"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="30"/>
       <c r="B32" s="33"/>
       <c r="C32" s="30"/>
@@ -2215,21 +2243,21 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
     </row>
-    <row r="33" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="12.75">
       <c r="A33" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C33" s="30">
         <v>1</v>
       </c>
       <c r="D33" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>48</v>
       </c>
       <c r="F33" s="32">
         <v>17533</v>
@@ -2255,21 +2283,21 @@
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
     </row>
-    <row r="34" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="12.75">
       <c r="A34" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C34" s="30">
         <v>1</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="31">
         <v>2229</v>
@@ -2295,21 +2323,21 @@
       <c r="Y34" s="18"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="12.75">
       <c r="A35" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C35" s="30">
         <v>1</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="32">
         <v>101</v>
@@ -2335,21 +2363,21 @@
       <c r="Y35" s="18"/>
       <c r="Z35" s="18"/>
     </row>
-    <row r="36" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="12.75">
       <c r="A36" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C36" s="30">
         <v>1</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="32">
         <v>38502</v>
@@ -2375,21 +2403,21 @@
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
     </row>
-    <row r="37" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="12.75">
       <c r="A37" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C37" s="30">
         <v>1</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="39">
         <v>1</v>
@@ -2415,21 +2443,21 @@
       <c r="Y37" s="18"/>
       <c r="Z37" s="18"/>
     </row>
-    <row r="38" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="12.75">
       <c r="A38" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C38" s="30">
         <v>1</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="39">
         <v>0</v>
@@ -2455,21 +2483,21 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
     </row>
-    <row r="39" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="12.75">
       <c r="A39" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C39" s="30">
         <v>1</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="32">
         <v>35</v>
@@ -2495,7 +2523,7 @@
       <c r="Y39" s="18"/>
       <c r="Z39" s="18"/>
     </row>
-    <row r="40" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="12.75">
       <c r="A40" s="30"/>
       <c r="B40" s="33"/>
       <c r="C40" s="30"/>
@@ -2523,12 +2551,12 @@
       <c r="Y40" s="18"/>
       <c r="Z40" s="18"/>
     </row>
-    <row r="41" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="12.75">
       <c r="A41" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C41" s="30">
         <v>1</v>
@@ -2537,10 +2565,10 @@
         <v>140</v>
       </c>
       <c r="E41" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="32" t="s">
         <v>55</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>56</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -2563,12 +2591,12 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
     </row>
-    <row r="42" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="12.75">
       <c r="A42" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C42" s="30">
         <v>1</v>
@@ -2577,10 +2605,10 @@
         <v>140</v>
       </c>
       <c r="E42" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>57</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>58</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -2603,12 +2631,12 @@
       <c r="Y42" s="18"/>
       <c r="Z42" s="18"/>
     </row>
-    <row r="43" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="12.75">
       <c r="A43" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C43" s="30">
         <v>1</v>
@@ -2617,7 +2645,7 @@
         <v>140</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" s="32">
         <v>18</v>
@@ -2643,12 +2671,12 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="18"/>
     </row>
-    <row r="44" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="12.75">
       <c r="A44" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C44" s="30">
         <v>1</v>
@@ -2657,10 +2685,10 @@
         <v>140</v>
       </c>
       <c r="E44" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>60</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>61</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -2683,12 +2711,12 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="18"/>
     </row>
-    <row r="45" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="12.75">
       <c r="A45" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C45" s="30">
         <v>1</v>
@@ -2697,10 +2725,10 @@
         <v>140</v>
       </c>
       <c r="E45" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -2723,12 +2751,12 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="18"/>
     </row>
-    <row r="46" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="12.75">
       <c r="A46" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C46" s="30">
         <v>1</v>
@@ -2737,10 +2765,10 @@
         <v>140</v>
       </c>
       <c r="E46" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>64</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>65</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -2763,12 +2791,12 @@
       <c r="Y46" s="18"/>
       <c r="Z46" s="18"/>
     </row>
-    <row r="47" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="12.75">
       <c r="A47" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C47" s="30">
         <v>1</v>
@@ -2777,10 +2805,10 @@
         <v>140</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -2803,12 +2831,12 @@
       <c r="Y47" s="18"/>
       <c r="Z47" s="18"/>
     </row>
-    <row r="48" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="12.75">
       <c r="A48" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C48" s="30">
         <v>1</v>
@@ -2817,10 +2845,10 @@
         <v>140</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -2843,7 +2871,7 @@
       <c r="Y48" s="18"/>
       <c r="Z48" s="18"/>
     </row>
-    <row r="49" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="12.75">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
@@ -2871,7 +2899,7 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="18"/>
     </row>
-    <row r="50" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="12.75">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
@@ -2899,7 +2927,7 @@
       <c r="Y50" s="18"/>
       <c r="Z50" s="18"/>
     </row>
-    <row r="51" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="12.75">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="16"/>
@@ -2927,7 +2955,7 @@
       <c r="Y51" s="18"/>
       <c r="Z51" s="18"/>
     </row>
-    <row r="52" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="12.75">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="16"/>
@@ -2954,7 +2982,7 @@
       <c r="Y52" s="18"/>
       <c r="Z52" s="18"/>
     </row>
-    <row r="53" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="12.75">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="16"/>
@@ -2981,7 +3009,7 @@
       <c r="Y53" s="18"/>
       <c r="Z53" s="18"/>
     </row>
-    <row r="54" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="12.75">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="16"/>
@@ -3009,7 +3037,7 @@
       <c r="Y54" s="18"/>
       <c r="Z54" s="18"/>
     </row>
-    <row r="55" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="12.75">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="16"/>
@@ -3037,7 +3065,7 @@
       <c r="Y55" s="18"/>
       <c r="Z55" s="18"/>
     </row>
-    <row r="56" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="12.75">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="16"/>
@@ -3065,7 +3093,7 @@
       <c r="Y56" s="18"/>
       <c r="Z56" s="18"/>
     </row>
-    <row r="57" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="12.75">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="16"/>
@@ -3093,7 +3121,7 @@
       <c r="Y57" s="18"/>
       <c r="Z57" s="18"/>
     </row>
-    <row r="58" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="12.75">
       <c r="A58" s="17"/>
       <c r="B58" s="18"/>
       <c r="C58" s="16"/>
@@ -3121,7 +3149,7 @@
       <c r="Y58" s="18"/>
       <c r="Z58" s="18"/>
     </row>
-    <row r="59" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="12.75">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="16"/>
@@ -3149,7 +3177,7 @@
       <c r="Y59" s="18"/>
       <c r="Z59" s="18"/>
     </row>
-    <row r="60" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="12.75">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="16"/>
@@ -3177,7 +3205,7 @@
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
     </row>
-    <row r="61" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="12.75">
       <c r="A61" s="17"/>
       <c r="B61" s="18"/>
       <c r="C61" s="16"/>
@@ -3205,7 +3233,7 @@
       <c r="Y61" s="18"/>
       <c r="Z61" s="18"/>
     </row>
-    <row r="62" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="12.75">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="16"/>
@@ -3233,7 +3261,7 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
     </row>
-    <row r="63" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="12.75">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="16"/>
@@ -3261,7 +3289,7 @@
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
     </row>
-    <row r="64" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="12.75">
       <c r="A64" s="17"/>
       <c r="B64" s="18"/>
       <c r="C64" s="16"/>
@@ -3289,7 +3317,7 @@
       <c r="Y64" s="18"/>
       <c r="Z64" s="18"/>
     </row>
-    <row r="65" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="12.75">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="16"/>
@@ -3317,7 +3345,7 @@
       <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
     </row>
-    <row r="66" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="12.75">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="16"/>
@@ -3345,7 +3373,7 @@
       <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
     </row>
-    <row r="67" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="12.75">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="16"/>
@@ -3373,7 +3401,7 @@
       <c r="Y67" s="18"/>
       <c r="Z67" s="18"/>
     </row>
-    <row r="68" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="12.75">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="16"/>
@@ -3401,7 +3429,7 @@
       <c r="Y68" s="18"/>
       <c r="Z68" s="18"/>
     </row>
-    <row r="69" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="12.75">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="16"/>
@@ -3429,7 +3457,7 @@
       <c r="Y69" s="18"/>
       <c r="Z69" s="18"/>
     </row>
-    <row r="70" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="12.75">
       <c r="A70" s="22"/>
       <c r="B70" s="23"/>
       <c r="C70" s="16"/>
@@ -3457,7 +3485,7 @@
       <c r="Y70" s="18"/>
       <c r="Z70" s="18"/>
     </row>
-    <row r="71" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="12.75">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="16"/>
@@ -3485,7 +3513,7 @@
       <c r="Y71" s="18"/>
       <c r="Z71" s="18"/>
     </row>
-    <row r="72" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="12.75">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="16"/>
@@ -3513,7 +3541,7 @@
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
     </row>
-    <row r="73" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="12.75">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
       <c r="C73" s="16"/>
@@ -3541,7 +3569,7 @@
       <c r="Y73" s="18"/>
       <c r="Z73" s="18"/>
     </row>
-    <row r="74" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="12.75">
       <c r="A74" s="17"/>
       <c r="B74" s="23"/>
       <c r="C74" s="16"/>
@@ -3569,7 +3597,7 @@
       <c r="Y74" s="18"/>
       <c r="Z74" s="18"/>
     </row>
-    <row r="75" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="12.75">
       <c r="A75" s="17"/>
       <c r="B75" s="23"/>
       <c r="C75" s="16"/>
@@ -3597,7 +3625,7 @@
       <c r="Y75" s="18"/>
       <c r="Z75" s="18"/>
     </row>
-    <row r="76" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="12.75">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
       <c r="C76" s="16"/>
@@ -3625,7 +3653,7 @@
       <c r="Y76" s="18"/>
       <c r="Z76" s="18"/>
     </row>
-    <row r="77" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="12.75">
       <c r="A77" s="17"/>
       <c r="B77" s="23"/>
       <c r="C77" s="16"/>
@@ -3653,7 +3681,7 @@
       <c r="Y77" s="18"/>
       <c r="Z77" s="18"/>
     </row>
-    <row r="78" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="12.75">
       <c r="A78" s="17"/>
       <c r="B78" s="23"/>
       <c r="C78" s="16"/>
@@ -3681,7 +3709,7 @@
       <c r="Y78" s="18"/>
       <c r="Z78" s="18"/>
     </row>
-    <row r="79" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="12.75">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="16"/>
@@ -3709,7 +3737,7 @@
       <c r="Y79" s="18"/>
       <c r="Z79" s="18"/>
     </row>
-    <row r="80" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="12.75">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
       <c r="C80" s="16"/>
@@ -3737,7 +3765,7 @@
       <c r="Y80" s="18"/>
       <c r="Z80" s="18"/>
     </row>
-    <row r="81" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="12.75">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
       <c r="C81" s="16"/>
@@ -3765,7 +3793,7 @@
       <c r="Y81" s="18"/>
       <c r="Z81" s="18"/>
     </row>
-    <row r="82" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="12.75">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="16"/>
@@ -3793,7 +3821,7 @@
       <c r="Y82" s="18"/>
       <c r="Z82" s="18"/>
     </row>
-    <row r="83" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="12.75">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
       <c r="C83" s="16"/>
@@ -3821,7 +3849,7 @@
       <c r="Y83" s="18"/>
       <c r="Z83" s="18"/>
     </row>
-    <row r="84" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="12.75">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
       <c r="C84" s="16"/>
@@ -3849,7 +3877,7 @@
       <c r="Y84" s="18"/>
       <c r="Z84" s="18"/>
     </row>
-    <row r="85" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="12.75">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
       <c r="C85" s="16"/>
@@ -3877,7 +3905,7 @@
       <c r="Y85" s="18"/>
       <c r="Z85" s="18"/>
     </row>
-    <row r="86" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="12.75">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="16"/>
@@ -3905,7 +3933,7 @@
       <c r="Y86" s="18"/>
       <c r="Z86" s="18"/>
     </row>
-    <row r="87" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="12.75">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="16"/>
@@ -3933,7 +3961,7 @@
       <c r="Y87" s="18"/>
       <c r="Z87" s="18"/>
     </row>
-    <row r="88" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="12.75">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="16"/>
@@ -3961,7 +3989,7 @@
       <c r="Y88" s="18"/>
       <c r="Z88" s="18"/>
     </row>
-    <row r="89" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="12.75">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="16"/>
@@ -3989,7 +4017,7 @@
       <c r="Y89" s="18"/>
       <c r="Z89" s="18"/>
     </row>
-    <row r="90" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="12.75">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="16"/>
@@ -4017,7 +4045,7 @@
       <c r="Y90" s="18"/>
       <c r="Z90" s="18"/>
     </row>
-    <row r="91" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="12.75">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
       <c r="C91" s="16"/>
@@ -4045,7 +4073,7 @@
       <c r="Y91" s="18"/>
       <c r="Z91" s="18"/>
     </row>
-    <row r="92" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="12.75">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="16"/>
@@ -4073,7 +4101,7 @@
       <c r="Y92" s="18"/>
       <c r="Z92" s="18"/>
     </row>
-    <row r="93" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="12.75">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="16"/>
@@ -4101,7 +4129,7 @@
       <c r="Y93" s="18"/>
       <c r="Z93" s="18"/>
     </row>
-    <row r="94" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="12.75">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="16"/>
@@ -4129,7 +4157,7 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="95" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="12.75">
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="16"/>
@@ -4157,7 +4185,7 @@
       <c r="Y95" s="18"/>
       <c r="Z95" s="18"/>
     </row>
-    <row r="96" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="12.75">
       <c r="A96" s="17"/>
       <c r="B96" s="23"/>
       <c r="C96" s="16"/>
@@ -4185,7 +4213,7 @@
       <c r="Y96" s="18"/>
       <c r="Z96" s="18"/>
     </row>
-    <row r="97" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="12.75">
       <c r="A97" s="17"/>
       <c r="B97" s="23"/>
       <c r="C97" s="16"/>
@@ -4213,7 +4241,7 @@
       <c r="Y97" s="18"/>
       <c r="Z97" s="18"/>
     </row>
-    <row r="98" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="12.75">
       <c r="A98" s="17"/>
       <c r="B98" s="23"/>
       <c r="C98" s="16"/>
@@ -4241,7 +4269,7 @@
       <c r="Y98" s="18"/>
       <c r="Z98" s="18"/>
     </row>
-    <row r="99" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="12.75">
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="16"/>
@@ -4269,7 +4297,7 @@
       <c r="Y99" s="18"/>
       <c r="Z99" s="18"/>
     </row>
-    <row r="100" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="12.75">
       <c r="A100" s="18"/>
       <c r="B100" s="17"/>
       <c r="C100" s="16"/>
@@ -4297,7 +4325,7 @@
       <c r="Y100" s="18"/>
       <c r="Z100" s="18"/>
     </row>
-    <row r="101" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="12.75">
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="16"/>
@@ -4325,7 +4353,7 @@
       <c r="Y101" s="18"/>
       <c r="Z101" s="18"/>
     </row>
-    <row r="102" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="12.75">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="16"/>
@@ -4353,7 +4381,7 @@
       <c r="Y102" s="18"/>
       <c r="Z102" s="18"/>
     </row>
-    <row r="103" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="12.75">
       <c r="A103" s="17"/>
       <c r="B103" s="17"/>
       <c r="C103" s="16"/>
@@ -4381,7 +4409,7 @@
       <c r="Y103" s="18"/>
       <c r="Z103" s="18"/>
     </row>
-    <row r="104" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="12.75">
       <c r="A104" s="17"/>
       <c r="B104" s="17"/>
       <c r="C104" s="16"/>
@@ -4409,7 +4437,7 @@
       <c r="Y104" s="18"/>
       <c r="Z104" s="18"/>
     </row>
-    <row r="105" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="12.75">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="16"/>
@@ -4437,7 +4465,7 @@
       <c r="Y105" s="18"/>
       <c r="Z105" s="18"/>
     </row>
-    <row r="106" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="12.75">
       <c r="A106" s="17"/>
       <c r="B106" s="17"/>
       <c r="C106" s="16"/>
@@ -4465,7 +4493,7 @@
       <c r="Y106" s="18"/>
       <c r="Z106" s="18"/>
     </row>
-    <row r="107" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="12.75">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="16"/>
@@ -4493,7 +4521,7 @@
       <c r="Y107" s="18"/>
       <c r="Z107" s="18"/>
     </row>
-    <row r="108" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="12.75">
       <c r="A108" s="17"/>
       <c r="B108" s="17"/>
       <c r="C108" s="16"/>
@@ -4521,7 +4549,7 @@
       <c r="Y108" s="18"/>
       <c r="Z108" s="18"/>
     </row>
-    <row r="109" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="12.75">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="16"/>
@@ -4549,7 +4577,7 @@
       <c r="Y109" s="18"/>
       <c r="Z109" s="18"/>
     </row>
-    <row r="110" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="12.75">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="16"/>
@@ -4577,7 +4605,7 @@
       <c r="Y110" s="18"/>
       <c r="Z110" s="18"/>
     </row>
-    <row r="111" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="12.75">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="16"/>
@@ -4605,7 +4633,7 @@
       <c r="Y111" s="18"/>
       <c r="Z111" s="18"/>
     </row>
-    <row r="112" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="12.75">
       <c r="A112" s="17"/>
       <c r="B112" s="17"/>
       <c r="C112" s="16"/>
@@ -4633,7 +4661,7 @@
       <c r="Y112" s="18"/>
       <c r="Z112" s="18"/>
     </row>
-    <row r="113" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="12.75">
       <c r="A113" s="17"/>
       <c r="B113" s="17"/>
       <c r="C113" s="16"/>
@@ -4661,7 +4689,7 @@
       <c r="Y113" s="18"/>
       <c r="Z113" s="18"/>
     </row>
-    <row r="114" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" ht="12.75">
       <c r="A114" s="17"/>
       <c r="B114" s="17"/>
       <c r="C114" s="16"/>
@@ -4689,7 +4717,7 @@
       <c r="Y114" s="18"/>
       <c r="Z114" s="18"/>
     </row>
-    <row r="115" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="12.75">
       <c r="A115" s="17"/>
       <c r="B115" s="17"/>
       <c r="C115" s="16"/>
@@ -4717,7 +4745,7 @@
       <c r="Y115" s="18"/>
       <c r="Z115" s="18"/>
     </row>
-    <row r="116" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="12.75">
       <c r="A116" s="17"/>
       <c r="B116" s="17"/>
       <c r="C116" s="16"/>
@@ -4745,7 +4773,7 @@
       <c r="Y116" s="18"/>
       <c r="Z116" s="18"/>
     </row>
-    <row r="117" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="12.75">
       <c r="A117" s="17"/>
       <c r="B117" s="17"/>
       <c r="C117" s="16"/>
@@ -4773,7 +4801,7 @@
       <c r="Y117" s="18"/>
       <c r="Z117" s="18"/>
     </row>
-    <row r="118" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="12.75">
       <c r="A118" s="17"/>
       <c r="B118" s="17"/>
       <c r="C118" s="16"/>
@@ -4801,7 +4829,7 @@
       <c r="Y118" s="18"/>
       <c r="Z118" s="18"/>
     </row>
-    <row r="119" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="12.75">
       <c r="A119" s="17"/>
       <c r="B119" s="17"/>
       <c r="C119" s="16"/>
@@ -4829,7 +4857,7 @@
       <c r="Y119" s="18"/>
       <c r="Z119" s="18"/>
     </row>
-    <row r="120" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="12.75">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="C120" s="16"/>
@@ -4857,7 +4885,7 @@
       <c r="Y120" s="18"/>
       <c r="Z120" s="18"/>
     </row>
-    <row r="121" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="12.75">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="C121" s="16"/>
@@ -4885,7 +4913,7 @@
       <c r="Y121" s="18"/>
       <c r="Z121" s="18"/>
     </row>
-    <row r="122" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="12.75">
       <c r="A122" s="17"/>
       <c r="B122" s="17"/>
       <c r="C122" s="16"/>
@@ -4913,7 +4941,7 @@
       <c r="Y122" s="18"/>
       <c r="Z122" s="18"/>
     </row>
-    <row r="123" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="12.75">
       <c r="A123" s="17"/>
       <c r="B123" s="17"/>
       <c r="C123" s="16"/>
@@ -4941,7 +4969,7 @@
       <c r="Y123" s="18"/>
       <c r="Z123" s="18"/>
     </row>
-    <row r="124" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="12.75">
       <c r="A124" s="17"/>
       <c r="B124" s="17"/>
       <c r="C124" s="16"/>
@@ -4969,7 +4997,7 @@
       <c r="Y124" s="18"/>
       <c r="Z124" s="18"/>
     </row>
-    <row r="125" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="12.75">
       <c r="A125" s="17"/>
       <c r="B125" s="17"/>
       <c r="C125" s="16"/>
@@ -4997,7 +5025,7 @@
       <c r="Y125" s="18"/>
       <c r="Z125" s="18"/>
     </row>
-    <row r="126" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="12.75">
       <c r="A126" s="17"/>
       <c r="B126" s="17"/>
       <c r="C126" s="16"/>
@@ -5025,7 +5053,7 @@
       <c r="Y126" s="18"/>
       <c r="Z126" s="18"/>
     </row>
-    <row r="127" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="12.75">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="16"/>
@@ -5053,7 +5081,7 @@
       <c r="Y127" s="18"/>
       <c r="Z127" s="18"/>
     </row>
-    <row r="128" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="12.75">
       <c r="A128" s="18"/>
       <c r="B128" s="17"/>
       <c r="C128" s="16"/>
@@ -5081,7 +5109,7 @@
       <c r="Y128" s="18"/>
       <c r="Z128" s="18"/>
     </row>
-    <row r="129" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" ht="12.75">
       <c r="A129" s="18"/>
       <c r="B129" s="23"/>
       <c r="C129" s="16"/>
@@ -5109,7 +5137,7 @@
       <c r="Y129" s="18"/>
       <c r="Z129" s="18"/>
     </row>
-    <row r="130" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="12.75">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="16"/>
@@ -5137,7 +5165,7 @@
       <c r="Y130" s="18"/>
       <c r="Z130" s="18"/>
     </row>
-    <row r="131" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" ht="12.75">
       <c r="A131" s="17"/>
       <c r="B131" s="17"/>
       <c r="C131" s="16"/>
@@ -5165,7 +5193,7 @@
       <c r="Y131" s="18"/>
       <c r="Z131" s="18"/>
     </row>
-    <row r="132" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" ht="12.75">
       <c r="A132" s="17"/>
       <c r="B132" s="17"/>
       <c r="C132" s="16"/>
@@ -5193,7 +5221,7 @@
       <c r="Y132" s="18"/>
       <c r="Z132" s="18"/>
     </row>
-    <row r="133" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" ht="12.75">
       <c r="A133" s="17"/>
       <c r="B133" s="18"/>
       <c r="C133" s="16"/>
@@ -5221,7 +5249,7 @@
       <c r="Y133" s="18"/>
       <c r="Z133" s="18"/>
     </row>
-    <row r="134" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="12.75">
       <c r="A134" s="17"/>
       <c r="B134" s="18"/>
       <c r="C134" s="16"/>
@@ -5249,7 +5277,7 @@
       <c r="Y134" s="18"/>
       <c r="Z134" s="18"/>
     </row>
-    <row r="135" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="12.75">
       <c r="A135" s="17"/>
       <c r="B135" s="18"/>
       <c r="C135" s="16"/>
@@ -5277,7 +5305,7 @@
       <c r="Y135" s="18"/>
       <c r="Z135" s="18"/>
     </row>
-    <row r="136" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="12.75">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
       <c r="C136" s="16"/>
@@ -5305,7 +5333,7 @@
       <c r="Y136" s="18"/>
       <c r="Z136" s="18"/>
     </row>
-    <row r="137" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="12.75">
       <c r="A137" s="18"/>
       <c r="B137" s="17"/>
       <c r="C137" s="16"/>
@@ -5333,7 +5361,7 @@
       <c r="Y137" s="18"/>
       <c r="Z137" s="18"/>
     </row>
-    <row r="138" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="12.75">
       <c r="A138" s="18"/>
       <c r="B138" s="17"/>
       <c r="C138" s="16"/>
@@ -5361,7 +5389,7 @@
       <c r="Y138" s="18"/>
       <c r="Z138" s="18"/>
     </row>
-    <row r="139" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="12.75">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
       <c r="C139" s="16"/>
@@ -5389,7 +5417,7 @@
       <c r="Y139" s="18"/>
       <c r="Z139" s="18"/>
     </row>
-    <row r="140" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="12.75">
       <c r="A140" s="17"/>
       <c r="B140" s="18"/>
       <c r="C140" s="16"/>
@@ -5417,7 +5445,7 @@
       <c r="Y140" s="18"/>
       <c r="Z140" s="18"/>
     </row>
-    <row r="141" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="12.75">
       <c r="A141" s="17"/>
       <c r="B141" s="18"/>
       <c r="C141" s="16"/>
@@ -5445,7 +5473,7 @@
       <c r="Y141" s="18"/>
       <c r="Z141" s="18"/>
     </row>
-    <row r="142" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="12.75">
       <c r="A142" s="17"/>
       <c r="B142" s="18"/>
       <c r="C142" s="16"/>
@@ -5473,7 +5501,7 @@
       <c r="Y142" s="18"/>
       <c r="Z142" s="18"/>
     </row>
-    <row r="143" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="12.75">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="16"/>
@@ -5501,7 +5529,7 @@
       <c r="Y143" s="18"/>
       <c r="Z143" s="18"/>
     </row>
-    <row r="144" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="12.75">
       <c r="A144" s="17"/>
       <c r="B144" s="18"/>
       <c r="C144" s="16"/>
@@ -5529,7 +5557,7 @@
       <c r="Y144" s="18"/>
       <c r="Z144" s="18"/>
     </row>
-    <row r="145" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="12.75">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="16"/>
@@ -5557,7 +5585,7 @@
       <c r="Y145" s="18"/>
       <c r="Z145" s="18"/>
     </row>
-    <row r="146" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="12.75">
       <c r="A146" s="17"/>
       <c r="B146" s="17"/>
       <c r="C146" s="16"/>
@@ -5585,7 +5613,7 @@
       <c r="Y146" s="18"/>
       <c r="Z146" s="18"/>
     </row>
-    <row r="147" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="12.75">
       <c r="A147" s="17"/>
       <c r="B147" s="17"/>
       <c r="C147" s="16"/>
@@ -5613,7 +5641,7 @@
       <c r="Y147" s="18"/>
       <c r="Z147" s="18"/>
     </row>
-    <row r="148" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="12.75">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
       <c r="C148" s="16"/>
@@ -5641,7 +5669,7 @@
       <c r="Y148" s="18"/>
       <c r="Z148" s="18"/>
     </row>
-    <row r="149" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="12.75">
       <c r="A149" s="18"/>
       <c r="B149" s="23"/>
       <c r="C149" s="16"/>
@@ -5669,7 +5697,7 @@
       <c r="Y149" s="18"/>
       <c r="Z149" s="18"/>
     </row>
-    <row r="150" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="12.75">
       <c r="A150" s="18"/>
       <c r="B150" s="23"/>
       <c r="C150" s="16"/>
@@ -5697,7 +5725,7 @@
       <c r="Y150" s="18"/>
       <c r="Z150" s="18"/>
     </row>
-    <row r="151" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="12.75">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
       <c r="C151" s="16"/>
@@ -5725,7 +5753,7 @@
       <c r="Y151" s="18"/>
       <c r="Z151" s="18"/>
     </row>
-    <row r="152" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="12.75">
       <c r="A152" s="17"/>
       <c r="B152" s="17"/>
       <c r="C152" s="16"/>
@@ -5753,7 +5781,7 @@
       <c r="Y152" s="18"/>
       <c r="Z152" s="18"/>
     </row>
-    <row r="153" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="12.75">
       <c r="A153" s="17"/>
       <c r="B153" s="17"/>
       <c r="C153" s="16"/>
@@ -5781,7 +5809,7 @@
       <c r="Y153" s="18"/>
       <c r="Z153" s="18"/>
     </row>
-    <row r="154" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="12.75">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
       <c r="C154" s="16"/>
@@ -5809,7 +5837,7 @@
       <c r="Y154" s="18"/>
       <c r="Z154" s="18"/>
     </row>
-    <row r="155" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="12.75">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="16"/>
@@ -5837,7 +5865,7 @@
       <c r="Y155" s="18"/>
       <c r="Z155" s="18"/>
     </row>
-    <row r="156" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="12.75">
       <c r="A156" s="18"/>
       <c r="B156" s="18"/>
       <c r="C156" s="16"/>
@@ -5865,7 +5893,7 @@
       <c r="Y156" s="18"/>
       <c r="Z156" s="18"/>
     </row>
-    <row r="157" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="12.75">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
       <c r="C157" s="16"/>
@@ -5893,7 +5921,7 @@
       <c r="Y157" s="18"/>
       <c r="Z157" s="18"/>
     </row>
-    <row r="158" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="12.75">
       <c r="A158" s="22"/>
       <c r="B158" s="17"/>
       <c r="C158" s="16"/>
@@ -5921,7 +5949,7 @@
       <c r="Y158" s="18"/>
       <c r="Z158" s="18"/>
     </row>
-    <row r="159" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="12.75">
       <c r="A159" s="22"/>
       <c r="B159" s="17"/>
       <c r="C159" s="16"/>
@@ -5949,7 +5977,7 @@
       <c r="Y159" s="18"/>
       <c r="Z159" s="18"/>
     </row>
-    <row r="160" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="12.75">
       <c r="A160" s="22"/>
       <c r="B160" s="17"/>
       <c r="C160" s="16"/>
@@ -5977,7 +6005,7 @@
       <c r="Y160" s="18"/>
       <c r="Z160" s="18"/>
     </row>
-    <row r="161" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="12.75">
       <c r="A161" s="22"/>
       <c r="B161" s="17"/>
       <c r="C161" s="16"/>
@@ -6005,7 +6033,7 @@
       <c r="Y161" s="18"/>
       <c r="Z161" s="18"/>
     </row>
-    <row r="162" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="12.75">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
       <c r="C162" s="16"/>
@@ -6033,7 +6061,7 @@
       <c r="Y162" s="18"/>
       <c r="Z162" s="18"/>
     </row>
-    <row r="163" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="12.75">
       <c r="A163" s="18"/>
       <c r="B163" s="17"/>
       <c r="C163" s="16"/>
@@ -6061,7 +6089,7 @@
       <c r="Y163" s="18"/>
       <c r="Z163" s="18"/>
     </row>
-    <row r="164" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="12.75">
       <c r="A164" s="18"/>
       <c r="B164" s="17"/>
       <c r="C164" s="16"/>
@@ -6089,7 +6117,7 @@
       <c r="Y164" s="18"/>
       <c r="Z164" s="18"/>
     </row>
-    <row r="165" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="12.75">
       <c r="A165" s="18"/>
       <c r="B165" s="17"/>
       <c r="C165" s="16"/>
@@ -6117,7 +6145,7 @@
       <c r="Y165" s="18"/>
       <c r="Z165" s="18"/>
     </row>
-    <row r="166" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="12.75">
       <c r="A166" s="18"/>
       <c r="B166" s="17"/>
       <c r="C166" s="16"/>
@@ -6145,7 +6173,7 @@
       <c r="Y166" s="18"/>
       <c r="Z166" s="18"/>
     </row>
-    <row r="167" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="12.75">
       <c r="A167" s="18"/>
       <c r="B167" s="17"/>
       <c r="C167" s="16"/>
@@ -6173,7 +6201,7 @@
       <c r="Y167" s="18"/>
       <c r="Z167" s="18"/>
     </row>
-    <row r="168" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="12.75">
       <c r="A168" s="18"/>
       <c r="B168" s="17"/>
       <c r="C168" s="16"/>
@@ -6201,7 +6229,7 @@
       <c r="Y168" s="18"/>
       <c r="Z168" s="18"/>
     </row>
-    <row r="169" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="12.75">
       <c r="A169" s="18"/>
       <c r="B169" s="17"/>
       <c r="C169" s="16"/>
@@ -6229,7 +6257,7 @@
       <c r="Y169" s="18"/>
       <c r="Z169" s="18"/>
     </row>
-    <row r="170" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="12.75">
       <c r="A170" s="17"/>
       <c r="B170" s="17"/>
       <c r="C170" s="16"/>
@@ -6257,7 +6285,7 @@
       <c r="Y170" s="18"/>
       <c r="Z170" s="18"/>
     </row>
-    <row r="171" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="12.75">
       <c r="A171" s="17"/>
       <c r="B171" s="17"/>
       <c r="C171" s="16"/>
@@ -6285,7 +6313,7 @@
       <c r="Y171" s="18"/>
       <c r="Z171" s="18"/>
     </row>
-    <row r="172" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="12.75">
       <c r="A172" s="17"/>
       <c r="B172" s="17"/>
       <c r="C172" s="16"/>
@@ -6313,7 +6341,7 @@
       <c r="Y172" s="18"/>
       <c r="Z172" s="18"/>
     </row>
-    <row r="173" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="12.75">
       <c r="A173" s="17"/>
       <c r="B173" s="17"/>
       <c r="C173" s="16"/>
@@ -6341,7 +6369,7 @@
       <c r="Y173" s="18"/>
       <c r="Z173" s="18"/>
     </row>
-    <row r="174" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="12.75">
       <c r="A174" s="17"/>
       <c r="B174" s="17"/>
       <c r="C174" s="16"/>
@@ -6369,7 +6397,7 @@
       <c r="Y174" s="18"/>
       <c r="Z174" s="18"/>
     </row>
-    <row r="175" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="12.75">
       <c r="A175" s="17"/>
       <c r="B175" s="17"/>
       <c r="C175" s="16"/>
@@ -6397,7 +6425,7 @@
       <c r="Y175" s="18"/>
       <c r="Z175" s="18"/>
     </row>
-    <row r="176" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="12.75">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="16"/>
@@ -6425,7 +6453,7 @@
       <c r="Y176" s="18"/>
       <c r="Z176" s="18"/>
     </row>
-    <row r="177" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="12.75">
       <c r="A177" s="18"/>
       <c r="B177" s="17"/>
       <c r="C177" s="16"/>
@@ -6453,7 +6481,7 @@
       <c r="Y177" s="18"/>
       <c r="Z177" s="18"/>
     </row>
-    <row r="178" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="12.75">
       <c r="A178" s="18"/>
       <c r="B178" s="17"/>
       <c r="C178" s="16"/>
@@ -6481,7 +6509,7 @@
       <c r="Y178" s="18"/>
       <c r="Z178" s="18"/>
     </row>
-    <row r="179" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="12.75">
       <c r="A179" s="18"/>
       <c r="B179" s="17"/>
       <c r="C179" s="16"/>
@@ -6509,7 +6537,7 @@
       <c r="Y179" s="18"/>
       <c r="Z179" s="18"/>
     </row>
-    <row r="180" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="12.75">
       <c r="A180" s="18"/>
       <c r="B180" s="17"/>
       <c r="C180" s="16"/>
@@ -6537,7 +6565,7 @@
       <c r="Y180" s="18"/>
       <c r="Z180" s="18"/>
     </row>
-    <row r="181" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="12.75">
       <c r="A181" s="18"/>
       <c r="B181" s="17"/>
       <c r="C181" s="16"/>
@@ -6565,7 +6593,7 @@
       <c r="Y181" s="18"/>
       <c r="Z181" s="18"/>
     </row>
-    <row r="182" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="12.75">
       <c r="A182" s="18"/>
       <c r="B182" s="17"/>
       <c r="C182" s="16"/>
@@ -6593,7 +6621,7 @@
       <c r="Y182" s="18"/>
       <c r="Z182" s="18"/>
     </row>
-    <row r="183" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="12.75">
       <c r="A183" s="18"/>
       <c r="B183" s="17"/>
       <c r="C183" s="16"/>
@@ -6621,7 +6649,7 @@
       <c r="Y183" s="18"/>
       <c r="Z183" s="18"/>
     </row>
-    <row r="184" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="12.75">
       <c r="A184" s="18"/>
       <c r="B184" s="17"/>
       <c r="C184" s="16"/>
@@ -6649,7 +6677,7 @@
       <c r="Y184" s="18"/>
       <c r="Z184" s="18"/>
     </row>
-    <row r="185" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="12.75">
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
       <c r="C185" s="16"/>
@@ -6677,7 +6705,7 @@
       <c r="Y185" s="18"/>
       <c r="Z185" s="18"/>
     </row>
-    <row r="186" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="12.75">
       <c r="A186" s="17"/>
       <c r="B186" s="18"/>
       <c r="C186" s="16"/>
@@ -6705,7 +6733,7 @@
       <c r="Y186" s="18"/>
       <c r="Z186" s="18"/>
     </row>
-    <row r="187" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="12.75">
       <c r="A187" s="17"/>
       <c r="B187" s="18"/>
       <c r="C187" s="16"/>
@@ -6733,7 +6761,7 @@
       <c r="Y187" s="18"/>
       <c r="Z187" s="18"/>
     </row>
-    <row r="188" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="12.75">
       <c r="A188" s="17"/>
       <c r="B188" s="18"/>
       <c r="C188" s="16"/>
@@ -6761,7 +6789,7 @@
       <c r="Y188" s="18"/>
       <c r="Z188" s="18"/>
     </row>
-    <row r="189" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="12.75">
       <c r="A189" s="17"/>
       <c r="B189" s="18"/>
       <c r="C189" s="16"/>
@@ -6789,7 +6817,7 @@
       <c r="Y189" s="18"/>
       <c r="Z189" s="18"/>
     </row>
-    <row r="190" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="12.75">
       <c r="A190" s="17"/>
       <c r="B190" s="18"/>
       <c r="C190" s="16"/>
@@ -6817,7 +6845,7 @@
       <c r="Y190" s="18"/>
       <c r="Z190" s="18"/>
     </row>
-    <row r="191" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="12.75">
       <c r="A191" s="17"/>
       <c r="B191" s="18"/>
       <c r="C191" s="16"/>
@@ -6845,7 +6873,7 @@
       <c r="Y191" s="18"/>
       <c r="Z191" s="18"/>
     </row>
-    <row r="192" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="12.75">
       <c r="A192" s="17"/>
       <c r="B192" s="17"/>
       <c r="C192" s="16"/>
@@ -6873,7 +6901,7 @@
       <c r="Y192" s="18"/>
       <c r="Z192" s="18"/>
     </row>
-    <row r="193" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="12.75">
       <c r="A193" s="17"/>
       <c r="B193" s="18"/>
       <c r="C193" s="16"/>
@@ -6901,7 +6929,7 @@
       <c r="Y193" s="18"/>
       <c r="Z193" s="18"/>
     </row>
-    <row r="194" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="12.75">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
       <c r="C194" s="16"/>
@@ -6929,7 +6957,7 @@
       <c r="Y194" s="18"/>
       <c r="Z194" s="18"/>
     </row>
-    <row r="195" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" ht="12.75">
       <c r="A195" s="17"/>
       <c r="B195" s="17"/>
       <c r="C195" s="16"/>
@@ -6957,7 +6985,7 @@
       <c r="Y195" s="18"/>
       <c r="Z195" s="18"/>
     </row>
-    <row r="196" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="12.75">
       <c r="A196" s="17"/>
       <c r="B196" s="17"/>
       <c r="C196" s="16"/>
@@ -6985,7 +7013,7 @@
       <c r="Y196" s="18"/>
       <c r="Z196" s="18"/>
     </row>
-    <row r="197" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" ht="12.75">
       <c r="A197" s="17"/>
       <c r="B197" s="17"/>
       <c r="C197" s="16"/>
@@ -7013,7 +7041,7 @@
       <c r="Y197" s="18"/>
       <c r="Z197" s="18"/>
     </row>
-    <row r="198" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" ht="12.75">
       <c r="A198" s="17"/>
       <c r="B198" s="17"/>
       <c r="C198" s="16"/>
@@ -7041,7 +7069,7 @@
       <c r="Y198" s="18"/>
       <c r="Z198" s="18"/>
     </row>
-    <row r="199" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" ht="12.75">
       <c r="A199" s="17"/>
       <c r="B199" s="17"/>
       <c r="C199" s="16"/>
@@ -7069,7 +7097,7 @@
       <c r="Y199" s="18"/>
       <c r="Z199" s="18"/>
     </row>
-    <row r="200" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="12.75">
       <c r="A200" s="17"/>
       <c r="B200" s="17"/>
       <c r="C200" s="16"/>
@@ -7097,7 +7125,7 @@
       <c r="Y200" s="18"/>
       <c r="Z200" s="18"/>
     </row>
-    <row r="201" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="12.75">
       <c r="A201" s="17"/>
       <c r="B201" s="17"/>
       <c r="C201" s="16"/>
@@ -7125,7 +7153,7 @@
       <c r="Y201" s="18"/>
       <c r="Z201" s="18"/>
     </row>
-    <row r="202" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="12.75">
       <c r="A202" s="17"/>
       <c r="B202" s="17"/>
       <c r="C202" s="16"/>
@@ -7153,7 +7181,7 @@
       <c r="Y202" s="18"/>
       <c r="Z202" s="18"/>
     </row>
-    <row r="203" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" ht="12.75">
       <c r="A203" s="18"/>
       <c r="B203" s="18"/>
       <c r="C203" s="16"/>
@@ -7181,7 +7209,7 @@
       <c r="Y203" s="18"/>
       <c r="Z203" s="18"/>
     </row>
-    <row r="204" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" ht="12.75">
       <c r="A204" s="17"/>
       <c r="B204" s="18"/>
       <c r="C204" s="16"/>
@@ -7209,7 +7237,7 @@
       <c r="Y204" s="18"/>
       <c r="Z204" s="18"/>
     </row>
-    <row r="205" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" ht="12.75">
       <c r="A205" s="17"/>
       <c r="B205" s="18"/>
       <c r="C205" s="16"/>
@@ -7237,7 +7265,7 @@
       <c r="Y205" s="18"/>
       <c r="Z205" s="18"/>
     </row>
-    <row r="206" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="12.75">
       <c r="A206" s="17"/>
       <c r="B206" s="18"/>
       <c r="C206" s="16"/>
@@ -7265,7 +7293,7 @@
       <c r="Y206" s="18"/>
       <c r="Z206" s="18"/>
     </row>
-    <row r="207" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="12.75">
       <c r="A207" s="17"/>
       <c r="B207" s="18"/>
       <c r="C207" s="16"/>
@@ -7293,7 +7321,7 @@
       <c r="Y207" s="18"/>
       <c r="Z207" s="18"/>
     </row>
-    <row r="208" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" ht="12.75">
       <c r="A208" s="17"/>
       <c r="B208" s="18"/>
       <c r="C208" s="16"/>
@@ -7321,7 +7349,7 @@
       <c r="Y208" s="18"/>
       <c r="Z208" s="18"/>
     </row>
-    <row r="209" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" ht="12.75">
       <c r="A209" s="17"/>
       <c r="B209" s="18"/>
       <c r="C209" s="16"/>
@@ -7349,7 +7377,7 @@
       <c r="Y209" s="18"/>
       <c r="Z209" s="18"/>
     </row>
-    <row r="210" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" ht="12.75">
       <c r="A210" s="17"/>
       <c r="B210" s="18"/>
       <c r="C210" s="16"/>
@@ -7377,7 +7405,7 @@
       <c r="Y210" s="18"/>
       <c r="Z210" s="18"/>
     </row>
-    <row r="211" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" ht="12.75">
       <c r="A211" s="17"/>
       <c r="B211" s="18"/>
       <c r="C211" s="16"/>
@@ -7405,7 +7433,7 @@
       <c r="Y211" s="18"/>
       <c r="Z211" s="18"/>
     </row>
-    <row r="212" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" ht="12.75">
       <c r="A212" s="18"/>
       <c r="B212" s="18"/>
       <c r="C212" s="16"/>
@@ -7433,7 +7461,7 @@
       <c r="Y212" s="18"/>
       <c r="Z212" s="18"/>
     </row>
-    <row r="213" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" ht="12.75">
       <c r="A213" s="17"/>
       <c r="B213" s="18"/>
       <c r="C213" s="16"/>
@@ -7461,7 +7489,7 @@
       <c r="Y213" s="18"/>
       <c r="Z213" s="18"/>
     </row>
-    <row r="214" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" ht="12.75">
       <c r="A214" s="17"/>
       <c r="B214" s="18"/>
       <c r="C214" s="16"/>
@@ -7489,7 +7517,7 @@
       <c r="Y214" s="18"/>
       <c r="Z214" s="18"/>
     </row>
-    <row r="215" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="12.75">
       <c r="A215" s="17"/>
       <c r="B215" s="18"/>
       <c r="C215" s="16"/>
@@ -7517,7 +7545,7 @@
       <c r="Y215" s="18"/>
       <c r="Z215" s="18"/>
     </row>
-    <row r="216" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="12.75">
       <c r="A216" s="17"/>
       <c r="B216" s="18"/>
       <c r="C216" s="16"/>
@@ -7545,7 +7573,7 @@
       <c r="Y216" s="18"/>
       <c r="Z216" s="18"/>
     </row>
-    <row r="217" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="12.75">
       <c r="A217" s="17"/>
       <c r="B217" s="18"/>
       <c r="C217" s="16"/>
@@ -7573,7 +7601,7 @@
       <c r="Y217" s="18"/>
       <c r="Z217" s="18"/>
     </row>
-    <row r="218" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" ht="12.75">
       <c r="A218" s="17"/>
       <c r="B218" s="18"/>
       <c r="C218" s="16"/>
@@ -7601,7 +7629,7 @@
       <c r="Y218" s="18"/>
       <c r="Z218" s="18"/>
     </row>
-    <row r="219" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" ht="12.75">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
       <c r="C219" s="16"/>
@@ -7629,7 +7657,7 @@
       <c r="Y219" s="18"/>
       <c r="Z219" s="18"/>
     </row>
-    <row r="220" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" ht="12.75">
       <c r="A220" s="17"/>
       <c r="B220" s="18"/>
       <c r="C220" s="16"/>
@@ -7657,7 +7685,7 @@
       <c r="Y220" s="18"/>
       <c r="Z220" s="18"/>
     </row>
-    <row r="221" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" ht="12.75">
       <c r="A221" s="18"/>
       <c r="B221" s="18"/>
       <c r="C221" s="16"/>
@@ -7685,7 +7713,7 @@
       <c r="Y221" s="18"/>
       <c r="Z221" s="18"/>
     </row>
-    <row r="222" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" ht="12.75">
       <c r="A222" s="17"/>
       <c r="B222" s="18"/>
       <c r="C222" s="16"/>
@@ -7713,7 +7741,7 @@
       <c r="Y222" s="18"/>
       <c r="Z222" s="18"/>
     </row>
-    <row r="223" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" ht="12.75">
       <c r="A223" s="17"/>
       <c r="B223" s="18"/>
       <c r="C223" s="16"/>
@@ -7741,7 +7769,7 @@
       <c r="Y223" s="18"/>
       <c r="Z223" s="18"/>
     </row>
-    <row r="224" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" ht="12.75">
       <c r="A224" s="17"/>
       <c r="B224" s="18"/>
       <c r="C224" s="16"/>
@@ -7769,7 +7797,7 @@
       <c r="Y224" s="18"/>
       <c r="Z224" s="18"/>
     </row>
-    <row r="225" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" ht="12.75">
       <c r="A225" s="17"/>
       <c r="B225" s="18"/>
       <c r="C225" s="16"/>
@@ -7797,7 +7825,7 @@
       <c r="Y225" s="18"/>
       <c r="Z225" s="18"/>
     </row>
-    <row r="226" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" ht="12.75">
       <c r="A226" s="17"/>
       <c r="B226" s="18"/>
       <c r="C226" s="16"/>
@@ -7825,7 +7853,7 @@
       <c r="Y226" s="18"/>
       <c r="Z226" s="18"/>
     </row>
-    <row r="227" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" ht="12.75">
       <c r="A227" s="17"/>
       <c r="B227" s="18"/>
       <c r="C227" s="16"/>
@@ -7853,7 +7881,7 @@
       <c r="Y227" s="18"/>
       <c r="Z227" s="18"/>
     </row>
-    <row r="228" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" ht="12.75">
       <c r="A228" s="17"/>
       <c r="B228" s="18"/>
       <c r="C228" s="16"/>
@@ -7881,7 +7909,7 @@
       <c r="Y228" s="18"/>
       <c r="Z228" s="18"/>
     </row>
-    <row r="229" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" ht="12.75">
       <c r="A229" s="17"/>
       <c r="B229" s="18"/>
       <c r="C229" s="16"/>
@@ -7909,7 +7937,7 @@
       <c r="Y229" s="18"/>
       <c r="Z229" s="18"/>
     </row>
-    <row r="230" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" ht="12.75">
       <c r="A230" s="18"/>
       <c r="B230" s="18"/>
       <c r="C230" s="16"/>
@@ -7937,7 +7965,7 @@
       <c r="Y230" s="18"/>
       <c r="Z230" s="18"/>
     </row>
-    <row r="231" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" ht="12.75">
       <c r="A231" s="18"/>
       <c r="B231" s="17"/>
       <c r="C231" s="16"/>
@@ -7965,7 +7993,7 @@
       <c r="Y231" s="18"/>
       <c r="Z231" s="18"/>
     </row>
-    <row r="232" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" ht="12.75">
       <c r="A232" s="18"/>
       <c r="B232" s="17"/>
       <c r="C232" s="16"/>
@@ -7993,7 +8021,7 @@
       <c r="Y232" s="18"/>
       <c r="Z232" s="18"/>
     </row>
-    <row r="233" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" ht="12.75">
       <c r="A233" s="18"/>
       <c r="B233" s="17"/>
       <c r="C233" s="16"/>
@@ -8021,7 +8049,7 @@
       <c r="Y233" s="18"/>
       <c r="Z233" s="18"/>
     </row>
-    <row r="234" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" ht="12.75">
       <c r="A234" s="18"/>
       <c r="B234" s="18"/>
       <c r="C234" s="16"/>
@@ -8049,7 +8077,7 @@
       <c r="Y234" s="18"/>
       <c r="Z234" s="18"/>
     </row>
-    <row r="235" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" ht="12.75">
       <c r="A235" s="17"/>
       <c r="B235" s="18"/>
       <c r="C235" s="16"/>
@@ -8077,7 +8105,7 @@
       <c r="Y235" s="18"/>
       <c r="Z235" s="18"/>
     </row>
-    <row r="236" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" ht="12.75">
       <c r="A236" s="17"/>
       <c r="B236" s="18"/>
       <c r="C236" s="16"/>
@@ -8105,7 +8133,7 @@
       <c r="Y236" s="18"/>
       <c r="Z236" s="18"/>
     </row>
-    <row r="237" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" ht="12.75">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
       <c r="C237" s="16"/>
@@ -8133,7 +8161,7 @@
       <c r="Y237" s="18"/>
       <c r="Z237" s="18"/>
     </row>
-    <row r="238" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" ht="12.75">
       <c r="A238" s="18"/>
       <c r="B238" s="18"/>
       <c r="C238" s="16"/>
@@ -8161,7 +8189,7 @@
       <c r="Y238" s="18"/>
       <c r="Z238" s="18"/>
     </row>
-    <row r="239" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" ht="12.75">
       <c r="A239" s="18"/>
       <c r="B239" s="23"/>
       <c r="C239" s="16"/>
@@ -8189,7 +8217,7 @@
       <c r="Y239" s="18"/>
       <c r="Z239" s="18"/>
     </row>
-    <row r="240" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" ht="12.75">
       <c r="A240" s="18"/>
       <c r="B240" s="23"/>
       <c r="C240" s="16"/>
@@ -8217,7 +8245,7 @@
       <c r="Y240" s="18"/>
       <c r="Z240" s="18"/>
     </row>
-    <row r="241" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" ht="12.75">
       <c r="A241" s="18"/>
       <c r="B241" s="23"/>
       <c r="C241" s="16"/>
@@ -8245,7 +8273,7 @@
       <c r="Y241" s="18"/>
       <c r="Z241" s="18"/>
     </row>
-    <row r="242" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" ht="12.75">
       <c r="A242" s="18"/>
       <c r="B242" s="23"/>
       <c r="C242" s="16"/>
@@ -8273,7 +8301,7 @@
       <c r="Y242" s="18"/>
       <c r="Z242" s="18"/>
     </row>
-    <row r="243" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" ht="12.75">
       <c r="A243" s="18"/>
       <c r="B243" s="23"/>
       <c r="C243" s="16"/>
@@ -8301,7 +8329,7 @@
       <c r="Y243" s="18"/>
       <c r="Z243" s="18"/>
     </row>
-    <row r="244" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" ht="12.75">
       <c r="A244" s="18"/>
       <c r="B244" s="23"/>
       <c r="C244" s="16"/>
@@ -8329,7 +8357,7 @@
       <c r="Y244" s="18"/>
       <c r="Z244" s="18"/>
     </row>
-    <row r="245" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" ht="12.75">
       <c r="A245" s="18"/>
       <c r="B245" s="18"/>
       <c r="C245" s="16"/>
@@ -8357,7 +8385,7 @@
       <c r="Y245" s="18"/>
       <c r="Z245" s="18"/>
     </row>
-    <row r="246" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" ht="12.75">
       <c r="A246" s="18"/>
       <c r="B246" s="17"/>
       <c r="C246" s="16"/>
@@ -8385,7 +8413,7 @@
       <c r="Y246" s="18"/>
       <c r="Z246" s="18"/>
     </row>
-    <row r="247" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" ht="12.75">
       <c r="A247" s="18"/>
       <c r="B247" s="17"/>
       <c r="C247" s="16"/>
@@ -8413,7 +8441,7 @@
       <c r="Y247" s="18"/>
       <c r="Z247" s="18"/>
     </row>
-    <row r="248" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" ht="12.75">
       <c r="A248" s="18"/>
       <c r="B248" s="17"/>
       <c r="C248" s="16"/>
@@ -8441,7 +8469,7 @@
       <c r="Y248" s="18"/>
       <c r="Z248" s="18"/>
     </row>
-    <row r="249" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" ht="12.75">
       <c r="A249" s="18"/>
       <c r="B249" s="17"/>
       <c r="C249" s="16"/>
@@ -8469,7 +8497,7 @@
       <c r="Y249" s="18"/>
       <c r="Z249" s="18"/>
     </row>
-    <row r="250" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" ht="12.75">
       <c r="A250" s="18"/>
       <c r="B250" s="17"/>
       <c r="C250" s="16"/>
@@ -8497,7 +8525,7 @@
       <c r="Y250" s="18"/>
       <c r="Z250" s="18"/>
     </row>
-    <row r="251" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" ht="12.75">
       <c r="A251" s="18"/>
       <c r="B251" s="17"/>
       <c r="C251" s="16"/>
@@ -8525,7 +8553,7 @@
       <c r="Y251" s="18"/>
       <c r="Z251" s="18"/>
     </row>
-    <row r="252" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" ht="12.75">
       <c r="A252" s="18"/>
       <c r="B252" s="18"/>
       <c r="C252" s="16"/>
@@ -8553,7 +8581,7 @@
       <c r="Y252" s="18"/>
       <c r="Z252" s="18"/>
     </row>
-    <row r="253" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" ht="12.75">
       <c r="A253" s="17"/>
       <c r="B253" s="17"/>
       <c r="C253" s="16"/>
@@ -8581,7 +8609,7 @@
       <c r="Y253" s="18"/>
       <c r="Z253" s="18"/>
     </row>
-    <row r="254" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" ht="12.75">
       <c r="A254" s="17"/>
       <c r="B254" s="17"/>
       <c r="C254" s="16"/>
@@ -8609,7 +8637,7 @@
       <c r="Y254" s="18"/>
       <c r="Z254" s="18"/>
     </row>
-    <row r="255" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" ht="12.75">
       <c r="A255" s="18"/>
       <c r="B255" s="17"/>
       <c r="C255" s="16"/>
@@ -8637,7 +8665,7 @@
       <c r="Y255" s="18"/>
       <c r="Z255" s="18"/>
     </row>
-    <row r="256" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" ht="12.75">
       <c r="A256" s="17"/>
       <c r="B256" s="17"/>
       <c r="C256" s="16"/>
@@ -8665,7 +8693,7 @@
       <c r="Y256" s="18"/>
       <c r="Z256" s="18"/>
     </row>
-    <row r="257" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" ht="12.75">
       <c r="A257" s="18"/>
       <c r="B257" s="17"/>
       <c r="C257" s="16"/>
@@ -8693,7 +8721,7 @@
       <c r="Y257" s="18"/>
       <c r="Z257" s="18"/>
     </row>
-    <row r="258" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" ht="12.75">
       <c r="A258" s="18"/>
       <c r="B258" s="17"/>
       <c r="C258" s="16"/>
@@ -8721,7 +8749,7 @@
       <c r="Y258" s="18"/>
       <c r="Z258" s="18"/>
     </row>
-    <row r="259" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" ht="12.75">
       <c r="A259" s="18"/>
       <c r="B259" s="17"/>
       <c r="C259" s="16"/>
@@ -8749,7 +8777,7 @@
       <c r="Y259" s="18"/>
       <c r="Z259" s="18"/>
     </row>
-    <row r="260" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" ht="12.75">
       <c r="A260" s="17"/>
       <c r="B260" s="17"/>
       <c r="C260" s="16"/>
@@ -8777,7 +8805,7 @@
       <c r="Y260" s="18"/>
       <c r="Z260" s="18"/>
     </row>
-    <row r="261" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" ht="12.75">
       <c r="A261" s="18"/>
       <c r="B261" s="17"/>
       <c r="C261" s="16"/>
@@ -8805,7 +8833,7 @@
       <c r="Y261" s="18"/>
       <c r="Z261" s="18"/>
     </row>
-    <row r="262" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" ht="12.75">
       <c r="A262" s="18"/>
       <c r="B262" s="17"/>
       <c r="C262" s="16"/>
@@ -8833,7 +8861,7 @@
       <c r="Y262" s="18"/>
       <c r="Z262" s="18"/>
     </row>
-    <row r="263" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" ht="12.75">
       <c r="A263" s="18"/>
       <c r="B263" s="17"/>
       <c r="C263" s="16"/>
@@ -8861,7 +8889,7 @@
       <c r="Y263" s="18"/>
       <c r="Z263" s="18"/>
     </row>
-    <row r="264" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" ht="12.75">
       <c r="A264" s="18"/>
       <c r="B264" s="17"/>
       <c r="C264" s="16"/>
@@ -8889,7 +8917,7 @@
       <c r="Y264" s="18"/>
       <c r="Z264" s="18"/>
     </row>
-    <row r="265" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" ht="12.75">
       <c r="A265" s="18"/>
       <c r="B265" s="17"/>
       <c r="C265" s="16"/>
@@ -8917,7 +8945,7 @@
       <c r="Y265" s="18"/>
       <c r="Z265" s="18"/>
     </row>
-    <row r="266" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" ht="12.75">
       <c r="A266" s="18"/>
       <c r="B266" s="17"/>
       <c r="C266" s="16"/>
@@ -8945,7 +8973,7 @@
       <c r="Y266" s="18"/>
       <c r="Z266" s="18"/>
     </row>
-    <row r="267" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" ht="12.75">
       <c r="A267" s="18"/>
       <c r="B267" s="17"/>
       <c r="C267" s="16"/>
@@ -8973,7 +9001,7 @@
       <c r="Y267" s="18"/>
       <c r="Z267" s="18"/>
     </row>
-    <row r="268" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" ht="12.75">
       <c r="A268" s="18"/>
       <c r="B268" s="17"/>
       <c r="C268" s="16"/>
@@ -9001,7 +9029,7 @@
       <c r="Y268" s="18"/>
       <c r="Z268" s="18"/>
     </row>
-    <row r="269" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" ht="12.75">
       <c r="A269" s="18"/>
       <c r="B269" s="17"/>
       <c r="C269" s="16"/>
@@ -9029,7 +9057,7 @@
       <c r="Y269" s="18"/>
       <c r="Z269" s="18"/>
     </row>
-    <row r="270" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" ht="12.75">
       <c r="A270" s="18"/>
       <c r="B270" s="17"/>
       <c r="C270" s="16"/>
@@ -9057,7 +9085,7 @@
       <c r="Y270" s="18"/>
       <c r="Z270" s="18"/>
     </row>
-    <row r="271" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" ht="12.75">
       <c r="A271" s="18"/>
       <c r="B271" s="17"/>
       <c r="C271" s="16"/>
@@ -9085,7 +9113,7 @@
       <c r="Y271" s="18"/>
       <c r="Z271" s="18"/>
     </row>
-    <row r="272" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" ht="12.75">
       <c r="A272" s="18"/>
       <c r="B272" s="17"/>
       <c r="C272" s="16"/>
@@ -9113,7 +9141,7 @@
       <c r="Y272" s="18"/>
       <c r="Z272" s="18"/>
     </row>
-    <row r="273" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" ht="12.75">
       <c r="A273" s="18"/>
       <c r="B273" s="17"/>
       <c r="C273" s="16"/>
@@ -9141,7 +9169,7 @@
       <c r="Y273" s="18"/>
       <c r="Z273" s="18"/>
     </row>
-    <row r="274" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" ht="12.75">
       <c r="A274" s="18"/>
       <c r="B274" s="18"/>
       <c r="C274" s="16"/>
@@ -9169,7 +9197,7 @@
       <c r="Y274" s="18"/>
       <c r="Z274" s="18"/>
     </row>
-    <row r="275" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" ht="12.75">
       <c r="A275" s="17"/>
       <c r="B275" s="18"/>
       <c r="C275" s="16"/>
@@ -9197,7 +9225,7 @@
       <c r="Y275" s="18"/>
       <c r="Z275" s="18"/>
     </row>
-    <row r="276" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="12.75">
       <c r="A276" s="17"/>
       <c r="B276" s="18"/>
       <c r="C276" s="16"/>
@@ -9225,7 +9253,7 @@
       <c r="Y276" s="18"/>
       <c r="Z276" s="18"/>
     </row>
-    <row r="277" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="12.75">
       <c r="A277" s="17"/>
       <c r="B277" s="18"/>
       <c r="C277" s="16"/>
@@ -9253,7 +9281,7 @@
       <c r="Y277" s="18"/>
       <c r="Z277" s="18"/>
     </row>
-    <row r="278" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" ht="12.75">
       <c r="A278" s="17"/>
       <c r="B278" s="18"/>
       <c r="C278" s="16"/>
@@ -9281,7 +9309,7 @@
       <c r="Y278" s="18"/>
       <c r="Z278" s="18"/>
     </row>
-    <row r="279" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="12.75">
       <c r="A279" s="17"/>
       <c r="B279" s="18"/>
       <c r="C279" s="16"/>
@@ -9309,7 +9337,7 @@
       <c r="Y279" s="18"/>
       <c r="Z279" s="18"/>
     </row>
-    <row r="280" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="12.75">
       <c r="A280" s="17"/>
       <c r="B280" s="18"/>
       <c r="C280" s="16"/>
@@ -9337,7 +9365,7 @@
       <c r="Y280" s="18"/>
       <c r="Z280" s="18"/>
     </row>
-    <row r="281" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="12.75">
       <c r="A281" s="17"/>
       <c r="B281" s="18"/>
       <c r="C281" s="16"/>
@@ -9365,7 +9393,7 @@
       <c r="Y281" s="18"/>
       <c r="Z281" s="18"/>
     </row>
-    <row r="282" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="12.75">
       <c r="A282" s="17"/>
       <c r="B282" s="18"/>
       <c r="C282" s="16"/>
@@ -9393,7 +9421,7 @@
       <c r="Y282" s="18"/>
       <c r="Z282" s="18"/>
     </row>
-    <row r="283" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="12.75">
       <c r="A283" s="17"/>
       <c r="B283" s="18"/>
       <c r="C283" s="16"/>
@@ -9421,7 +9449,7 @@
       <c r="Y283" s="18"/>
       <c r="Z283" s="18"/>
     </row>
-    <row r="284" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="12.75">
       <c r="A284" s="17"/>
       <c r="B284" s="18"/>
       <c r="C284" s="16"/>
@@ -9449,7 +9477,7 @@
       <c r="Y284" s="18"/>
       <c r="Z284" s="18"/>
     </row>
-    <row r="285" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="12.75">
       <c r="A285" s="17"/>
       <c r="B285" s="18"/>
       <c r="C285" s="16"/>
@@ -9477,7 +9505,7 @@
       <c r="Y285" s="18"/>
       <c r="Z285" s="18"/>
     </row>
-    <row r="286" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="12.75">
       <c r="A286" s="17"/>
       <c r="B286" s="18"/>
       <c r="C286" s="16"/>
@@ -9505,7 +9533,7 @@
       <c r="Y286" s="18"/>
       <c r="Z286" s="18"/>
     </row>
-    <row r="287" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="12.75">
       <c r="A287" s="18"/>
       <c r="B287" s="18"/>
       <c r="C287" s="16"/>
@@ -9533,7 +9561,7 @@
       <c r="Y287" s="18"/>
       <c r="Z287" s="18"/>
     </row>
-    <row r="288" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="12.75">
       <c r="A288" s="18"/>
       <c r="B288" s="18"/>
       <c r="C288" s="16"/>
@@ -9561,7 +9589,7 @@
       <c r="Y288" s="18"/>
       <c r="Z288" s="18"/>
     </row>
-    <row r="289" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" ht="12.75">
       <c r="A289" s="18"/>
       <c r="B289" s="18"/>
       <c r="C289" s="16"/>
@@ -9589,7 +9617,7 @@
       <c r="Y289" s="18"/>
       <c r="Z289" s="18"/>
     </row>
-    <row r="290" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" ht="12.75">
       <c r="A290" s="18"/>
       <c r="B290" s="18"/>
       <c r="C290" s="16"/>
@@ -9617,7 +9645,7 @@
       <c r="Y290" s="18"/>
       <c r="Z290" s="18"/>
     </row>
-    <row r="291" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" ht="12.75">
       <c r="A291" s="17"/>
       <c r="B291" s="18"/>
       <c r="C291" s="16"/>
@@ -9645,7 +9673,7 @@
       <c r="Y291" s="18"/>
       <c r="Z291" s="18"/>
     </row>
-    <row r="292" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" ht="12.75">
       <c r="A292" s="18"/>
       <c r="B292" s="18"/>
       <c r="C292" s="16"/>
@@ -9673,7 +9701,7 @@
       <c r="Y292" s="18"/>
       <c r="Z292" s="18"/>
     </row>
-    <row r="293" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" ht="12.75">
       <c r="A293" s="18"/>
       <c r="B293" s="18"/>
       <c r="C293" s="16"/>
@@ -9701,7 +9729,7 @@
       <c r="Y293" s="18"/>
       <c r="Z293" s="18"/>
     </row>
-    <row r="294" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" ht="12.75">
       <c r="A294" s="18"/>
       <c r="B294" s="18"/>
       <c r="C294" s="16"/>
@@ -9729,7 +9757,7 @@
       <c r="Y294" s="18"/>
       <c r="Z294" s="18"/>
     </row>
-    <row r="295" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" ht="12.75">
       <c r="A295" s="18"/>
       <c r="B295" s="18"/>
       <c r="C295" s="16"/>
@@ -9757,7 +9785,7 @@
       <c r="Y295" s="18"/>
       <c r="Z295" s="18"/>
     </row>
-    <row r="296" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" ht="12.75">
       <c r="A296" s="18"/>
       <c r="B296" s="18"/>
       <c r="C296" s="16"/>
@@ -9785,7 +9813,7 @@
       <c r="Y296" s="18"/>
       <c r="Z296" s="18"/>
     </row>
-    <row r="297" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" ht="12.75">
       <c r="A297" s="18"/>
       <c r="B297" s="18"/>
       <c r="C297" s="16"/>
@@ -9813,7 +9841,7 @@
       <c r="Y297" s="18"/>
       <c r="Z297" s="18"/>
     </row>
-    <row r="298" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" ht="12.75">
       <c r="A298" s="17"/>
       <c r="B298" s="18"/>
       <c r="C298" s="16"/>
@@ -9841,7 +9869,7 @@
       <c r="Y298" s="18"/>
       <c r="Z298" s="18"/>
     </row>
-    <row r="299" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" ht="12.75">
       <c r="A299" s="17"/>
       <c r="B299" s="18"/>
       <c r="C299" s="16"/>
@@ -9869,7 +9897,7 @@
       <c r="Y299" s="18"/>
       <c r="Z299" s="18"/>
     </row>
-    <row r="300" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" ht="12.75">
       <c r="A300" s="17"/>
       <c r="B300" s="18"/>
       <c r="C300" s="16"/>
@@ -9897,7 +9925,7 @@
       <c r="Y300" s="18"/>
       <c r="Z300" s="18"/>
     </row>
-    <row r="301" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" ht="12.75">
       <c r="A301" s="17"/>
       <c r="B301" s="18"/>
       <c r="C301" s="16"/>
@@ -9925,7 +9953,7 @@
       <c r="Y301" s="18"/>
       <c r="Z301" s="18"/>
     </row>
-    <row r="302" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" ht="12.75">
       <c r="A302" s="17"/>
       <c r="B302" s="18"/>
       <c r="C302" s="16"/>
@@ -9953,7 +9981,7 @@
       <c r="Y302" s="18"/>
       <c r="Z302" s="18"/>
     </row>
-    <row r="303" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" ht="12.75">
       <c r="A303" s="17"/>
       <c r="B303" s="18"/>
       <c r="C303" s="16"/>
@@ -9981,7 +10009,7 @@
       <c r="Y303" s="18"/>
       <c r="Z303" s="18"/>
     </row>
-    <row r="304" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" ht="12.75">
       <c r="A304" s="17"/>
       <c r="B304" s="18"/>
       <c r="C304" s="16"/>
@@ -10009,7 +10037,7 @@
       <c r="Y304" s="18"/>
       <c r="Z304" s="18"/>
     </row>
-    <row r="305" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" ht="12.75">
       <c r="A305" s="18"/>
       <c r="B305" s="18"/>
       <c r="C305" s="16"/>
@@ -10037,7 +10065,7 @@
       <c r="Y305" s="18"/>
       <c r="Z305" s="18"/>
     </row>
-    <row r="306" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" ht="12.75">
       <c r="A306" s="17"/>
       <c r="B306" s="18"/>
       <c r="C306" s="16"/>
@@ -10071,22 +10099,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView topLeftCell="U50" workbookViewId="0">
       <selection activeCell="AJ83" sqref="AJ83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="25" width="9.21875" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="25" width="9.28515625" style="41" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="41" bestFit="1" customWidth="1"/>
-    <col min="27" max="38" width="9.21875" style="41" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.88671875" style="41"/>
+    <col min="27" max="38" width="9.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.85546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="41">
         <v>-8.6680000000000004E-3</v>
       </c>
@@ -10202,7 +10230,7 @@
         <v>9.8119999999999995E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="41">
         <v>-4.7790000000000003E-3</v>
       </c>
@@ -10318,7 +10346,7 @@
         <v>7.4749999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="41">
         <v>1.74E-4</v>
       </c>
@@ -10434,7 +10462,7 @@
         <v>8.5579999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="41">
         <v>4.7679999999999997E-3</v>
       </c>
@@ -10550,7 +10578,7 @@
         <v>5.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="41">
         <v>9.3179999999999999E-3</v>
       </c>
@@ -10666,7 +10694,7 @@
         <v>4.2960000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6" s="41">
         <v>1.2435E-2</v>
       </c>
@@ -10782,7 +10810,7 @@
         <v>2.5019999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7" s="41">
         <v>1.3618E-2</v>
       </c>
@@ -10898,7 +10926,7 @@
         <v>2.643E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8" s="41">
         <v>1.55E-2</v>
       </c>
@@ -11014,7 +11042,7 @@
         <v>2.2070000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9" s="41">
         <v>1.5834999999999998E-2</v>
       </c>
@@ -11130,7 +11158,7 @@
         <v>7.6599999999999997E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10" s="41">
         <v>1.5720000000000001E-2</v>
       </c>
@@ -11246,7 +11274,7 @@
         <v>3.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11" s="41">
         <v>1.7023E-2</v>
       </c>
@@ -11362,7 +11390,7 @@
         <v>5.9100000000000005E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12" s="41">
         <v>1.7162E-2</v>
       </c>
@@ -11478,7 +11506,7 @@
         <v>1.15E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13" s="41">
         <v>1.8544999999999999E-2</v>
       </c>
@@ -11594,7 +11622,7 @@
         <v>-2.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14" s="41">
         <v>1.8794999999999999E-2</v>
       </c>
@@ -11710,7 +11738,7 @@
         <v>-2.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15" s="41">
         <v>1.7746999999999999E-2</v>
       </c>
@@ -11826,7 +11854,7 @@
         <v>-4.9600000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16" s="41">
         <v>1.9408000000000002E-2</v>
       </c>
@@ -11942,7 +11970,7 @@
         <v>-3.57E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38">
       <c r="A17" s="41">
         <v>1.9542E-2</v>
       </c>
@@ -12058,7 +12086,7 @@
         <v>-6.8099999999999996E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18" s="41">
         <v>1.9428000000000001E-2</v>
       </c>
@@ -12174,7 +12202,7 @@
         <v>-3.9100000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19" s="41">
         <v>1.9304000000000002E-2</v>
       </c>
@@ -12290,7 +12318,7 @@
         <v>-7.7200000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20" s="41">
         <v>1.8776999999999999E-2</v>
       </c>
@@ -12406,7 +12434,7 @@
         <v>-8.0500000000000005E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21" s="41">
         <v>1.7734E-2</v>
       </c>
@@ -12522,7 +12550,7 @@
         <v>-9.6900000000000003E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22" s="41">
         <v>1.687E-2</v>
       </c>
@@ -12638,7 +12666,7 @@
         <v>-1.0399999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23" s="41">
         <v>1.6438999999999999E-2</v>
       </c>
@@ -12754,7 +12782,7 @@
         <v>-1.196E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24" s="41">
         <v>1.4812000000000001E-2</v>
       </c>
@@ -12870,7 +12898,7 @@
         <v>-1.036E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25" s="41">
         <v>1.4376E-2</v>
       </c>
@@ -12986,7 +13014,7 @@
         <v>-1.122E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26" s="41">
         <v>1.3521E-2</v>
       </c>
@@ -13102,7 +13130,7 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27" s="41">
         <v>1.3223E-2</v>
       </c>
@@ -13218,7 +13246,7 @@
         <v>-1.2589999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28" s="41">
         <v>1.2425E-2</v>
       </c>
@@ -13334,7 +13362,7 @@
         <v>-1.266E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29" s="41">
         <v>1.2128999999999999E-2</v>
       </c>
@@ -13450,7 +13478,7 @@
         <v>-1.3090000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30" s="41">
         <v>1.1786E-2</v>
       </c>
@@ -13566,7 +13594,7 @@
         <v>-1.5380000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31" s="41">
         <v>1.1355000000000001E-2</v>
       </c>
@@ -13682,7 +13710,7 @@
         <v>-1.562E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32" s="41">
         <v>1.1002E-2</v>
       </c>
@@ -13798,7 +13826,7 @@
         <v>-1.6440000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33" s="41">
         <v>1.0902999999999999E-2</v>
       </c>
@@ -13914,7 +13942,7 @@
         <v>-1.689E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34" s="41">
         <v>1.0442999999999999E-2</v>
       </c>
@@ -14030,7 +14058,7 @@
         <v>-1.7409999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35" s="41">
         <v>1.0351000000000001E-2</v>
       </c>
@@ -14146,7 +14174,7 @@
         <v>-1.755E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36" s="41">
         <v>9.7699999999999992E-3</v>
       </c>
@@ -14262,7 +14290,7 @@
         <v>-1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37" s="41">
         <v>9.4610000000000007E-3</v>
       </c>
@@ -14378,7 +14406,7 @@
         <v>-1.817E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38" s="41">
         <v>9.2750000000000003E-3</v>
       </c>
@@ -14494,7 +14522,7 @@
         <v>-1.869E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39" s="41">
         <v>8.77E-3</v>
       </c>
@@ -14610,7 +14638,7 @@
         <v>-1.7470000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40" s="41">
         <v>8.09E-3</v>
       </c>
@@ -14726,7 +14754,7 @@
         <v>-1.683E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41" s="41">
         <v>7.5960000000000003E-3</v>
       </c>
@@ -14842,7 +14870,7 @@
         <v>-1.552E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42" s="41">
         <v>7.4619999999999999E-3</v>
       </c>
@@ -14958,7 +14986,7 @@
         <v>-1.4430000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43" s="41">
         <v>7.156E-3</v>
       </c>
@@ -15074,7 +15102,7 @@
         <v>-1.3389999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44" s="41">
         <v>1.2272999999999999E-2</v>
       </c>
@@ -15190,7 +15218,7 @@
         <v>-1.477E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45" s="41">
         <v>1.197E-2</v>
       </c>
@@ -15306,7 +15334,7 @@
         <v>-1.495E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46" s="41">
         <v>1.1514999999999999E-2</v>
       </c>
@@ -15422,7 +15450,7 @@
         <v>-1.366E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47" s="41">
         <v>1.1035E-2</v>
       </c>
@@ -15538,7 +15566,7 @@
         <v>-1.472E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48" s="41">
         <v>1.0789999999999999E-2</v>
       </c>
@@ -15654,7 +15682,7 @@
         <v>-1.5629999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38">
       <c r="A49" s="41">
         <v>1.0756E-2</v>
       </c>
@@ -15770,7 +15798,7 @@
         <v>-1.5610000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50" s="41">
         <v>1.0369E-2</v>
       </c>
@@ -15886,7 +15914,7 @@
         <v>-1.9170000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51" s="41">
         <v>1.0259000000000001E-2</v>
       </c>
@@ -16002,7 +16030,7 @@
         <v>-1.951E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52" s="41">
         <v>1.0055E-2</v>
       </c>
@@ -16118,7 +16146,7 @@
         <v>-2.0630000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53" s="41">
         <v>1.0125E-2</v>
       </c>
@@ -16234,7 +16262,7 @@
         <v>-2.2160000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54" s="41">
         <v>1.014E-2</v>
       </c>
@@ -16350,7 +16378,7 @@
         <v>-2.307E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55" s="41">
         <v>1.0099E-2</v>
       </c>
@@ -16466,7 +16494,7 @@
         <v>-2.2820000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56" s="41">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -16582,7 +16610,7 @@
         <v>-2.4030000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57" s="41">
         <v>9.6729999999999993E-3</v>
       </c>
@@ -16698,7 +16726,7 @@
         <v>-2.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38">
       <c r="A58" s="41">
         <v>9.6229999999999996E-3</v>
       </c>
@@ -16814,7 +16842,7 @@
         <v>-2.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38">
       <c r="A59" s="41">
         <v>9.3980000000000001E-3</v>
       </c>
@@ -16930,7 +16958,7 @@
         <v>-2.3839999999999998E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38">
       <c r="A60" s="41">
         <v>8.7889999999999999E-3</v>
       </c>
@@ -17046,7 +17074,7 @@
         <v>-2.4759999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38">
       <c r="A61" s="41">
         <v>9.0290000000000006E-3</v>
       </c>
@@ -17162,7 +17190,7 @@
         <v>-2.5179999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="A62" s="41">
         <v>8.914E-3</v>
       </c>
@@ -17278,7 +17306,7 @@
         <v>-2.4719999999999998E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="A63" s="41">
         <v>8.3300000000000006E-3</v>
       </c>
@@ -17394,7 +17422,7 @@
         <v>-2.5110000000000002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64" s="41">
         <v>8.1399999999999997E-3</v>
       </c>
@@ -17510,7 +17538,7 @@
         <v>-2.3800000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65" s="41">
         <v>8.097E-3</v>
       </c>
@@ -17626,7 +17654,7 @@
         <v>-2.307E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66" s="41">
         <v>8.1810000000000008E-3</v>
       </c>
@@ -17742,7 +17770,7 @@
         <v>-2.3779999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38">
       <c r="A67" s="41">
         <v>8.3250000000000008E-3</v>
       </c>
@@ -17858,7 +17886,7 @@
         <v>-2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38">
       <c r="A68" s="41">
         <v>8.0590000000000002E-3</v>
       </c>
@@ -17974,7 +18002,7 @@
         <v>-2.0950000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69" s="41">
         <v>7.9349999999999993E-3</v>
       </c>
@@ -18090,7 +18118,7 @@
         <v>-2.0990000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70" s="41">
         <v>7.8100000000000001E-3</v>
       </c>
@@ -18206,7 +18234,7 @@
         <v>-1.9849999999999998E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38">
       <c r="A71" s="41">
         <v>7.9570000000000005E-3</v>
       </c>
@@ -18322,7 +18350,7 @@
         <v>-2.0830000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38">
       <c r="A72" s="41">
         <v>8.1779999999999995E-3</v>
       </c>
@@ -18438,7 +18466,7 @@
         <v>-2.006E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="A73" s="41">
         <v>8.5299999999999994E-3</v>
       </c>
@@ -18554,7 +18582,7 @@
         <v>-1.9910000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="A74" s="41">
         <v>8.3750000000000005E-3</v>
       </c>
@@ -18670,7 +18698,7 @@
         <v>-2.3340000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="A75" s="41">
         <v>9.0229999999999998E-3</v>
       </c>
@@ -18786,7 +18814,7 @@
         <v>-2.287E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38">
       <c r="A76" s="41">
         <v>9.4199999999999996E-3</v>
       </c>
@@ -18902,7 +18930,7 @@
         <v>-2.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38">
       <c r="A77" s="41">
         <v>8.6320000000000008E-3</v>
       </c>
@@ -19024,22 +19052,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AJ85" sqref="AJ85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="25" width="10.21875" style="41" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="27" max="38" width="10.21875" style="41" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.88671875" style="41"/>
+    <col min="1" max="25" width="10.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="27" max="38" width="10.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.85546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="41">
         <v>2.5741E-2</v>
       </c>
@@ -19155,7 +19183,7 @@
         <v>-5.0829999999999998E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="41">
         <v>2.4738E-2</v>
       </c>
@@ -19271,7 +19299,7 @@
         <v>-8.4290000000000007E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="41">
         <v>2.5631999999999999E-2</v>
       </c>
@@ -19387,7 +19415,7 @@
         <v>-1.2567999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="41">
         <v>2.7165999999999999E-2</v>
       </c>
@@ -19503,7 +19531,7 @@
         <v>-1.486E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="41">
         <v>2.7265000000000001E-2</v>
       </c>
@@ -19619,7 +19647,7 @@
         <v>-1.7134E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6" s="41">
         <v>2.8046000000000001E-2</v>
       </c>
@@ -19735,7 +19763,7 @@
         <v>-1.7335E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7" s="41">
         <v>2.7147000000000001E-2</v>
       </c>
@@ -19851,7 +19879,7 @@
         <v>-1.7018999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8" s="41">
         <v>2.4983999999999999E-2</v>
       </c>
@@ -19967,7 +19995,7 @@
         <v>-1.5841000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9" s="41">
         <v>2.1911E-2</v>
       </c>
@@ -20083,7 +20111,7 @@
         <v>-1.5483E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10" s="41">
         <v>2.0337000000000001E-2</v>
       </c>
@@ -20199,7 +20227,7 @@
         <v>-1.4234E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11" s="41">
         <v>1.7994E-2</v>
       </c>
@@ -20315,7 +20343,7 @@
         <v>-1.3554999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12" s="41">
         <v>1.6419E-2</v>
       </c>
@@ -20431,7 +20459,7 @@
         <v>-1.2681E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13" s="41">
         <v>1.3075E-2</v>
       </c>
@@ -20547,7 +20575,7 @@
         <v>-1.1741E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14" s="41">
         <v>1.1006999999999999E-2</v>
       </c>
@@ -20663,7 +20691,7 @@
         <v>-1.0706E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15" s="41">
         <v>9.2230000000000003E-3</v>
       </c>
@@ -20779,7 +20807,7 @@
         <v>-1.0295E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16" s="41">
         <v>7.9830000000000005E-3</v>
       </c>
@@ -20895,7 +20923,7 @@
         <v>-9.5469999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38">
       <c r="A17" s="41">
         <v>6.1130000000000004E-3</v>
       </c>
@@ -21011,7 +21039,7 @@
         <v>-8.8170000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18" s="41">
         <v>4.9509999999999997E-3</v>
       </c>
@@ -21127,7 +21155,7 @@
         <v>-8.1419999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19" s="41">
         <v>4.1869999999999997E-3</v>
       </c>
@@ -21243,7 +21271,7 @@
         <v>-7.3899999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20" s="41">
         <v>3.3660000000000001E-3</v>
       </c>
@@ -21359,7 +21387,7 @@
         <v>-6.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21" s="41">
         <v>3.0130000000000001E-3</v>
       </c>
@@ -21475,7 +21503,7 @@
         <v>-6.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22" s="41">
         <v>2.6619999999999999E-3</v>
       </c>
@@ -21591,7 +21619,7 @@
         <v>-5.6730000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23" s="41">
         <v>2.333E-3</v>
       </c>
@@ -21707,7 +21735,7 @@
         <v>-5.2360000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24" s="41">
         <v>1.552E-3</v>
       </c>
@@ -21823,7 +21851,7 @@
         <v>-4.81E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25" s="41">
         <v>8.2700000000000004E-4</v>
       </c>
@@ -21939,7 +21967,7 @@
         <v>-4.3579999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26" s="41">
         <v>1.11E-4</v>
       </c>
@@ -22055,7 +22083,7 @@
         <v>-4.0039999999999997E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27" s="41">
         <v>-6.0499999999999996E-4</v>
       </c>
@@ -22171,7 +22199,7 @@
         <v>-3.7399999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28" s="41">
         <v>-1.111E-3</v>
       </c>
@@ -22287,7 +22315,7 @@
         <v>-3.346E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29" s="41">
         <v>-1.66E-3</v>
       </c>
@@ -22403,7 +22431,7 @@
         <v>-2.9629999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30" s="41">
         <v>-2.1679999999999998E-3</v>
       </c>
@@ -22519,7 +22547,7 @@
         <v>-2.6329999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31" s="41">
         <v>-2.5140000000000002E-3</v>
       </c>
@@ -22635,7 +22663,7 @@
         <v>-2.415E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32" s="41">
         <v>-3.0219999999999999E-3</v>
       </c>
@@ -22751,7 +22779,7 @@
         <v>-2.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33" s="41">
         <v>-3.3479999999999998E-3</v>
       </c>
@@ -22867,7 +22895,7 @@
         <v>-1.7979999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34" s="41">
         <v>-3.774E-3</v>
       </c>
@@ -22983,7 +23011,7 @@
         <v>-1.583E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35" s="41">
         <v>-3.9659999999999999E-3</v>
       </c>
@@ -23099,7 +23127,7 @@
         <v>-1.389E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36" s="41">
         <v>-4.2509999999999996E-3</v>
       </c>
@@ -23215,7 +23243,7 @@
         <v>-1.173E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37" s="41">
         <v>-4.5149999999999999E-3</v>
       </c>
@@ -23331,7 +23359,7 @@
         <v>-1.026E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38" s="41">
         <v>-4.5659999999999997E-3</v>
       </c>
@@ -23447,7 +23475,7 @@
         <v>-8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39" s="41">
         <v>-4.7200000000000002E-3</v>
       </c>
@@ -23563,7 +23591,7 @@
         <v>-7.5900000000000002E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40" s="41">
         <v>-4.8510000000000003E-3</v>
       </c>
@@ -23679,7 +23707,7 @@
         <v>-6.8900000000000005E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41" s="41">
         <v>-5.0720000000000001E-3</v>
       </c>
@@ -23795,7 +23823,7 @@
         <v>-6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42" s="41">
         <v>-5.411E-3</v>
       </c>
@@ -23911,7 +23939,7 @@
         <v>-6.4000000000000005E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43" s="41">
         <v>-5.6550000000000003E-3</v>
       </c>
@@ -24027,7 +24055,7 @@
         <v>-6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44" s="41">
         <v>-4.287E-3</v>
       </c>
@@ -24143,7 +24171,7 @@
         <v>-1.145E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45" s="41">
         <v>-4.4759999999999999E-3</v>
       </c>
@@ -24259,7 +24287,7 @@
         <v>-1.0020000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46" s="41">
         <v>-4.6779999999999999E-3</v>
       </c>
@@ -24375,7 +24403,7 @@
         <v>-8.0500000000000005E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47" s="41">
         <v>-4.9090000000000002E-3</v>
       </c>
@@ -24491,7 +24519,7 @@
         <v>-5.4500000000000002E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48" s="41">
         <v>-5.1919999999999996E-3</v>
       </c>
@@ -24607,7 +24635,7 @@
         <v>-3.5500000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38">
       <c r="A49" s="41">
         <v>-5.4999999999999997E-3</v>
       </c>
@@ -24723,7 +24751,7 @@
         <v>-1.25E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50" s="41">
         <v>-5.7759999999999999E-3</v>
       </c>
@@ -24839,7 +24867,7 @@
         <v>7.8999999999999996E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51" s="41">
         <v>-6.0759999999999998E-3</v>
       </c>
@@ -24955,7 +24983,7 @@
         <v>2.99E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52" s="41">
         <v>-6.2979999999999998E-3</v>
       </c>
@@ -25071,7 +25099,7 @@
         <v>4.7199999999999998E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53" s="41">
         <v>-6.496E-3</v>
       </c>
@@ -25187,7 +25215,7 @@
         <v>6.2699999999999995E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54" s="41">
         <v>-6.7029999999999998E-3</v>
       </c>
@@ -25303,7 +25331,7 @@
         <v>6.9300000000000004E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55" s="41">
         <v>-6.8849999999999996E-3</v>
       </c>
@@ -25419,7 +25447,7 @@
         <v>7.4399999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56" s="41">
         <v>-7.0299999999999998E-3</v>
       </c>
@@ -25535,7 +25563,7 @@
         <v>8.4400000000000002E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57" s="41">
         <v>-7.2570000000000004E-3</v>
       </c>
@@ -25651,7 +25679,7 @@
         <v>8.9899999999999995E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38">
       <c r="A58" s="41">
         <v>-7.3759999999999997E-3</v>
       </c>
@@ -25767,7 +25795,7 @@
         <v>9.3999999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38">
       <c r="A59" s="41">
         <v>-7.5170000000000002E-3</v>
       </c>
@@ -25883,7 +25911,7 @@
         <v>1.0740000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38">
       <c r="A60" s="41">
         <v>-7.6290000000000004E-3</v>
       </c>
@@ -25999,7 +26027,7 @@
         <v>1.1969999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38">
       <c r="A61" s="41">
         <v>-7.7869999999999997E-3</v>
       </c>
@@ -26115,7 +26143,7 @@
         <v>1.181E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="A62" s="41">
         <v>-7.9679999999999994E-3</v>
       </c>
@@ -26231,7 +26259,7 @@
         <v>1.2199999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="A63" s="41">
         <v>-8.1150000000000007E-3</v>
       </c>
@@ -26347,7 +26375,7 @@
         <v>1.1299999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64" s="41">
         <v>-8.1799999999999998E-3</v>
       </c>
@@ -26463,7 +26491,7 @@
         <v>1.013E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65" s="41">
         <v>-8.2190000000000006E-3</v>
       </c>
@@ -26579,7 +26607,7 @@
         <v>8.4900000000000004E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66" s="41">
         <v>-8.3199999999999993E-3</v>
       </c>
@@ -26695,7 +26723,7 @@
         <v>6.8199999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38">
       <c r="A67" s="41">
         <v>-8.3680000000000004E-3</v>
       </c>
@@ -26811,7 +26839,7 @@
         <v>4.7899999999999999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38">
       <c r="A68" s="41">
         <v>-8.5620000000000002E-3</v>
       </c>
@@ -26927,7 +26955,7 @@
         <v>2.6200000000000003E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69" s="41">
         <v>-8.652E-3</v>
       </c>
@@ -27043,7 +27071,7 @@
         <v>5.1999999999999997E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70" s="41">
         <v>-8.5070000000000007E-3</v>
       </c>
@@ -27159,7 +27187,7 @@
         <v>-6.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38">
       <c r="A71" s="41">
         <v>-8.3510000000000008E-3</v>
       </c>
@@ -27275,7 +27303,7 @@
         <v>-6.2000000000000003E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38">
       <c r="A72" s="41">
         <v>-8.4790000000000004E-3</v>
       </c>
@@ -27391,7 +27419,7 @@
         <v>-1.5699999999999999E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="A73" s="41">
         <v>-8.4460000000000004E-3</v>
       </c>
@@ -27507,7 +27535,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="A74" s="41">
         <v>-8.4899999999999993E-3</v>
       </c>
@@ -27623,7 +27651,7 @@
         <v>-2.1800000000000001E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="A75" s="41">
         <v>-8.6119999999999999E-3</v>
       </c>
@@ -27739,7 +27767,7 @@
         <v>-1.76E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38">
       <c r="A76" s="41">
         <v>-8.6090000000000003E-3</v>
       </c>
@@ -27855,7 +27883,7 @@
         <v>-2.4899999999999998E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38">
       <c r="A77" s="41">
         <v>-8.6300000000000005E-3</v>
       </c>

--- a/CE04OSBP/Omaha_Cal_Info_CE04OSBP_00001.xlsx
+++ b/CE04OSBP/Omaha_Cal_Info_CE04OSBP_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="450" windowWidth="14070" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14232" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="ACS140_CC_tcarray" sheetId="3" r:id="rId3"/>
     <sheet name="ACS140_CC_taarray" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
   <si>
     <t>Ref Des</t>
   </si>
@@ -68,9 +73,6 @@
   </si>
   <si>
     <t>22:00Z</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>579 m</t>
@@ -247,13 +249,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -352,7 +354,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,6 +544,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,6 +554,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -589,7 +608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,9 +640,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,6 +675,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -830,22 +851,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,12 +916,12 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -911,20 +932,20 @@
       <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="45">
+        <v>42219</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="36">
@@ -949,12 +970,12 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -965,20 +986,20 @@
       <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="45">
+        <v>42219</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L3" s="36">
         <f>((LEFT(G3,(FIND("°",G3,1)-1)))+(MID(G3,(FIND("°",G3,1)+1),(FIND("'",G3,1))-(FIND("°",G3,1)+1))/60))*(IF(RIGHT(G3,1)="N",1,-1))</f>
@@ -989,7 +1010,7 @@
         <v>-124.95373333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="4"/>
@@ -1001,7 +1022,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
@@ -1013,7 +1034,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -1025,7 +1046,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -1037,7 +1058,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
@@ -1049,13 +1070,13 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
     </row>
   </sheetData>
@@ -1064,26 +1085,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.7109375" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="20"/>
+    <col min="1" max="1" width="33.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.6640625" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="14.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1131,18 +1152,18 @@
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="32"/>
@@ -1167,7 +1188,7 @@
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="30"/>
@@ -1195,12 +1216,12 @@
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="30">
         <v>1</v>
@@ -1209,7 +1230,7 @@
         <v>1249</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="32">
         <v>6</v>
@@ -1235,7 +1256,7 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="33"/>
       <c r="C6" s="30"/>
@@ -1263,12 +1284,12 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
@@ -1277,7 +1298,7 @@
         <v>18153</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="32">
         <v>44.369586666666599</v>
@@ -1303,12 +1324,12 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="35">
         <v>1</v>
@@ -1317,7 +1338,7 @@
         <v>18153</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="32">
         <v>124.953736666666</v>
@@ -1343,12 +1364,12 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="35">
         <v>1</v>
@@ -1357,7 +1378,7 @@
         <v>18153</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="32">
         <v>0.45</v>
@@ -1383,12 +1404,12 @@
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="35">
         <v>1</v>
@@ -1397,7 +1418,7 @@
         <v>18153</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="32">
         <v>0.45</v>
@@ -1423,12 +1444,12 @@
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="35">
         <v>1</v>
@@ -1437,7 +1458,7 @@
         <v>18153</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="32">
         <v>0.45</v>
@@ -1463,12 +1484,12 @@
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="35">
         <v>1</v>
@@ -1477,7 +1498,7 @@
         <v>18153</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="32">
         <v>0.45</v>
@@ -1503,7 +1524,7 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -1531,21 +1552,21 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="30">
         <v>1</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="32">
         <v>44.369586666666599</v>
@@ -1571,21 +1592,21 @@
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="30">
         <v>1</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="32">
         <v>-124.953736666666</v>
@@ -1611,7 +1632,7 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="33"/>
       <c r="C16" s="30"/>
@@ -1639,12 +1660,12 @@
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="30">
         <v>1</v>
@@ -1653,7 +1674,7 @@
         <v>133</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="31">
         <v>44.369586666666599</v>
@@ -1679,12 +1700,12 @@
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="30">
         <v>1</v>
@@ -1693,7 +1714,7 @@
         <v>133</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="32">
         <v>-124.953736666666</v>
@@ -1719,12 +1740,12 @@
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="30">
         <v>1</v>
@@ -1733,10 +1754,10 @@
         <v>133</v>
       </c>
       <c r="E19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>34</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>35</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -1759,7 +1780,7 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="33"/>
       <c r="C20" s="30"/>
@@ -1787,12 +1808,12 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="35">
         <v>1</v>
@@ -1801,7 +1822,7 @@
         <v>8159</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="32">
         <v>44.369586666666599</v>
@@ -1827,12 +1848,12 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="35">
         <v>1</v>
@@ -1841,7 +1862,7 @@
         <v>8159</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="32">
         <v>-124.953736666666</v>
@@ -1867,7 +1888,7 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="33"/>
       <c r="C23" s="30"/>
@@ -1895,21 +1916,21 @@
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="30">
         <v>1</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="38">
         <v>3073</v>
@@ -1935,21 +1956,21 @@
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="30">
         <v>1</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="38">
         <v>44327</v>
@@ -1975,21 +1996,21 @@
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="30">
         <v>1</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>38</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>39</v>
       </c>
       <c r="F26" s="38">
         <v>19706</v>
@@ -2015,21 +2036,21 @@
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="30">
         <v>1</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="38">
         <v>34</v>
@@ -2055,21 +2076,21 @@
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="30">
         <v>1</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="32">
         <v>15.79</v>
@@ -2095,21 +2116,21 @@
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="30">
         <v>1</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" s="32">
         <v>8.3799999999999999E-2</v>
@@ -2135,21 +2156,21 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="30">
         <v>1</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="32">
         <v>0.2611</v>
@@ -2175,21 +2196,21 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="30">
         <v>1</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="32">
         <v>-0.82699999999999996</v>
@@ -2215,7 +2236,7 @@
       <c r="Y31" s="18"/>
       <c r="Z31" s="18"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="33"/>
       <c r="C32" s="30"/>
@@ -2243,21 +2264,21 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
     </row>
-    <row r="33" spans="1:26" ht="12.75">
+    <row r="33" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="30">
         <v>1</v>
       </c>
       <c r="D33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>46</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>47</v>
       </c>
       <c r="F33" s="32">
         <v>17533</v>
@@ -2283,21 +2304,21 @@
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
     </row>
-    <row r="34" spans="1:26" ht="12.75">
+    <row r="34" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="30">
         <v>1</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" s="31">
         <v>2229</v>
@@ -2323,21 +2344,21 @@
       <c r="Y34" s="18"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" spans="1:26" ht="12.75">
+    <row r="35" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="30">
         <v>1</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="32">
         <v>101</v>
@@ -2363,21 +2384,21 @@
       <c r="Y35" s="18"/>
       <c r="Z35" s="18"/>
     </row>
-    <row r="36" spans="1:26" ht="12.75">
+    <row r="36" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="30">
         <v>1</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" s="32">
         <v>38502</v>
@@ -2403,21 +2424,21 @@
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
     </row>
-    <row r="37" spans="1:26" ht="12.75">
+    <row r="37" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="30">
         <v>1</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="39">
         <v>1</v>
@@ -2443,21 +2464,21 @@
       <c r="Y37" s="18"/>
       <c r="Z37" s="18"/>
     </row>
-    <row r="38" spans="1:26" ht="12.75">
+    <row r="38" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="30">
         <v>1</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="39">
         <v>0</v>
@@ -2483,21 +2504,21 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
     </row>
-    <row r="39" spans="1:26" ht="12.75">
+    <row r="39" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="30">
         <v>1</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="32">
         <v>35</v>
@@ -2523,7 +2544,7 @@
       <c r="Y39" s="18"/>
       <c r="Z39" s="18"/>
     </row>
-    <row r="40" spans="1:26" ht="12.75">
+    <row r="40" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
       <c r="B40" s="33"/>
       <c r="C40" s="30"/>
@@ -2551,12 +2572,12 @@
       <c r="Y40" s="18"/>
       <c r="Z40" s="18"/>
     </row>
-    <row r="41" spans="1:26" ht="12.75">
+    <row r="41" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="30">
         <v>1</v>
@@ -2565,10 +2586,10 @@
         <v>140</v>
       </c>
       <c r="E41" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="32" t="s">
         <v>54</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>55</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -2591,12 +2612,12 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
     </row>
-    <row r="42" spans="1:26" ht="12.75">
+    <row r="42" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="30">
         <v>1</v>
@@ -2605,10 +2626,10 @@
         <v>140</v>
       </c>
       <c r="E42" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -2631,12 +2652,12 @@
       <c r="Y42" s="18"/>
       <c r="Z42" s="18"/>
     </row>
-    <row r="43" spans="1:26" ht="12.75">
+    <row r="43" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="30">
         <v>1</v>
@@ -2645,7 +2666,7 @@
         <v>140</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="32">
         <v>18</v>
@@ -2671,12 +2692,12 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="18"/>
     </row>
-    <row r="44" spans="1:26" ht="12.75">
+    <row r="44" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="30">
         <v>1</v>
@@ -2685,10 +2706,10 @@
         <v>140</v>
       </c>
       <c r="E44" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>59</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>60</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -2711,12 +2732,12 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="18"/>
     </row>
-    <row r="45" spans="1:26" ht="12.75">
+    <row r="45" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="30">
         <v>1</v>
@@ -2725,10 +2746,10 @@
         <v>140</v>
       </c>
       <c r="E45" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>61</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>62</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -2751,12 +2772,12 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="18"/>
     </row>
-    <row r="46" spans="1:26" ht="12.75">
+    <row r="46" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="30">
         <v>1</v>
@@ -2765,10 +2786,10 @@
         <v>140</v>
       </c>
       <c r="E46" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>63</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>64</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -2791,12 +2812,12 @@
       <c r="Y46" s="18"/>
       <c r="Z46" s="18"/>
     </row>
-    <row r="47" spans="1:26" ht="12.75">
+    <row r="47" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="30">
         <v>1</v>
@@ -2805,10 +2826,10 @@
         <v>140</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F47" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -2831,12 +2852,12 @@
       <c r="Y47" s="18"/>
       <c r="Z47" s="18"/>
     </row>
-    <row r="48" spans="1:26" ht="12.75">
+    <row r="48" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="30">
         <v>1</v>
@@ -2845,10 +2866,10 @@
         <v>140</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -2871,7 +2892,7 @@
       <c r="Y48" s="18"/>
       <c r="Z48" s="18"/>
     </row>
-    <row r="49" spans="1:26" ht="12.75">
+    <row r="49" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
@@ -2899,7 +2920,7 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="18"/>
     </row>
-    <row r="50" spans="1:26" ht="12.75">
+    <row r="50" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
@@ -2927,7 +2948,7 @@
       <c r="Y50" s="18"/>
       <c r="Z50" s="18"/>
     </row>
-    <row r="51" spans="1:26" ht="12.75">
+    <row r="51" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="16"/>
@@ -2955,7 +2976,7 @@
       <c r="Y51" s="18"/>
       <c r="Z51" s="18"/>
     </row>
-    <row r="52" spans="1:26" ht="12.75">
+    <row r="52" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="16"/>
@@ -2982,7 +3003,7 @@
       <c r="Y52" s="18"/>
       <c r="Z52" s="18"/>
     </row>
-    <row r="53" spans="1:26" ht="12.75">
+    <row r="53" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="16"/>
@@ -3009,7 +3030,7 @@
       <c r="Y53" s="18"/>
       <c r="Z53" s="18"/>
     </row>
-    <row r="54" spans="1:26" ht="12.75">
+    <row r="54" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="16"/>
@@ -3037,7 +3058,7 @@
       <c r="Y54" s="18"/>
       <c r="Z54" s="18"/>
     </row>
-    <row r="55" spans="1:26" ht="12.75">
+    <row r="55" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="16"/>
@@ -3065,7 +3086,7 @@
       <c r="Y55" s="18"/>
       <c r="Z55" s="18"/>
     </row>
-    <row r="56" spans="1:26" ht="12.75">
+    <row r="56" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="16"/>
@@ -3093,7 +3114,7 @@
       <c r="Y56" s="18"/>
       <c r="Z56" s="18"/>
     </row>
-    <row r="57" spans="1:26" ht="12.75">
+    <row r="57" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="16"/>
@@ -3121,7 +3142,7 @@
       <c r="Y57" s="18"/>
       <c r="Z57" s="18"/>
     </row>
-    <row r="58" spans="1:26" ht="12.75">
+    <row r="58" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="18"/>
       <c r="C58" s="16"/>
@@ -3149,7 +3170,7 @@
       <c r="Y58" s="18"/>
       <c r="Z58" s="18"/>
     </row>
-    <row r="59" spans="1:26" ht="12.75">
+    <row r="59" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="16"/>
@@ -3177,7 +3198,7 @@
       <c r="Y59" s="18"/>
       <c r="Z59" s="18"/>
     </row>
-    <row r="60" spans="1:26" ht="12.75">
+    <row r="60" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="16"/>
@@ -3205,7 +3226,7 @@
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
     </row>
-    <row r="61" spans="1:26" ht="12.75">
+    <row r="61" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="18"/>
       <c r="C61" s="16"/>
@@ -3233,7 +3254,7 @@
       <c r="Y61" s="18"/>
       <c r="Z61" s="18"/>
     </row>
-    <row r="62" spans="1:26" ht="12.75">
+    <row r="62" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="16"/>
@@ -3261,7 +3282,7 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
     </row>
-    <row r="63" spans="1:26" ht="12.75">
+    <row r="63" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="16"/>
@@ -3289,7 +3310,7 @@
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
     </row>
-    <row r="64" spans="1:26" ht="12.75">
+    <row r="64" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="18"/>
       <c r="C64" s="16"/>
@@ -3317,7 +3338,7 @@
       <c r="Y64" s="18"/>
       <c r="Z64" s="18"/>
     </row>
-    <row r="65" spans="1:26" ht="12.75">
+    <row r="65" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="16"/>
@@ -3345,7 +3366,7 @@
       <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
     </row>
-    <row r="66" spans="1:26" ht="12.75">
+    <row r="66" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="16"/>
@@ -3373,7 +3394,7 @@
       <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
     </row>
-    <row r="67" spans="1:26" ht="12.75">
+    <row r="67" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="16"/>
@@ -3401,7 +3422,7 @@
       <c r="Y67" s="18"/>
       <c r="Z67" s="18"/>
     </row>
-    <row r="68" spans="1:26" ht="12.75">
+    <row r="68" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="16"/>
@@ -3429,7 +3450,7 @@
       <c r="Y68" s="18"/>
       <c r="Z68" s="18"/>
     </row>
-    <row r="69" spans="1:26" ht="12.75">
+    <row r="69" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="16"/>
@@ -3457,7 +3478,7 @@
       <c r="Y69" s="18"/>
       <c r="Z69" s="18"/>
     </row>
-    <row r="70" spans="1:26" ht="12.75">
+    <row r="70" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="23"/>
       <c r="C70" s="16"/>
@@ -3485,7 +3506,7 @@
       <c r="Y70" s="18"/>
       <c r="Z70" s="18"/>
     </row>
-    <row r="71" spans="1:26" ht="12.75">
+    <row r="71" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="16"/>
@@ -3513,7 +3534,7 @@
       <c r="Y71" s="18"/>
       <c r="Z71" s="18"/>
     </row>
-    <row r="72" spans="1:26" ht="12.75">
+    <row r="72" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="16"/>
@@ -3541,7 +3562,7 @@
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
     </row>
-    <row r="73" spans="1:26" ht="12.75">
+    <row r="73" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
       <c r="C73" s="16"/>
@@ -3569,7 +3590,7 @@
       <c r="Y73" s="18"/>
       <c r="Z73" s="18"/>
     </row>
-    <row r="74" spans="1:26" ht="12.75">
+    <row r="74" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="23"/>
       <c r="C74" s="16"/>
@@ -3597,7 +3618,7 @@
       <c r="Y74" s="18"/>
       <c r="Z74" s="18"/>
     </row>
-    <row r="75" spans="1:26" ht="12.75">
+    <row r="75" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="23"/>
       <c r="C75" s="16"/>
@@ -3625,7 +3646,7 @@
       <c r="Y75" s="18"/>
       <c r="Z75" s="18"/>
     </row>
-    <row r="76" spans="1:26" ht="12.75">
+    <row r="76" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
       <c r="C76" s="16"/>
@@ -3653,7 +3674,7 @@
       <c r="Y76" s="18"/>
       <c r="Z76" s="18"/>
     </row>
-    <row r="77" spans="1:26" ht="12.75">
+    <row r="77" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="23"/>
       <c r="C77" s="16"/>
@@ -3681,7 +3702,7 @@
       <c r="Y77" s="18"/>
       <c r="Z77" s="18"/>
     </row>
-    <row r="78" spans="1:26" ht="12.75">
+    <row r="78" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="23"/>
       <c r="C78" s="16"/>
@@ -3709,7 +3730,7 @@
       <c r="Y78" s="18"/>
       <c r="Z78" s="18"/>
     </row>
-    <row r="79" spans="1:26" ht="12.75">
+    <row r="79" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="16"/>
@@ -3737,7 +3758,7 @@
       <c r="Y79" s="18"/>
       <c r="Z79" s="18"/>
     </row>
-    <row r="80" spans="1:26" ht="12.75">
+    <row r="80" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
       <c r="C80" s="16"/>
@@ -3765,7 +3786,7 @@
       <c r="Y80" s="18"/>
       <c r="Z80" s="18"/>
     </row>
-    <row r="81" spans="1:26" ht="12.75">
+    <row r="81" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
       <c r="C81" s="16"/>
@@ -3793,7 +3814,7 @@
       <c r="Y81" s="18"/>
       <c r="Z81" s="18"/>
     </row>
-    <row r="82" spans="1:26" ht="12.75">
+    <row r="82" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="16"/>
@@ -3821,7 +3842,7 @@
       <c r="Y82" s="18"/>
       <c r="Z82" s="18"/>
     </row>
-    <row r="83" spans="1:26" ht="12.75">
+    <row r="83" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
       <c r="C83" s="16"/>
@@ -3849,7 +3870,7 @@
       <c r="Y83" s="18"/>
       <c r="Z83" s="18"/>
     </row>
-    <row r="84" spans="1:26" ht="12.75">
+    <row r="84" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
       <c r="C84" s="16"/>
@@ -3877,7 +3898,7 @@
       <c r="Y84" s="18"/>
       <c r="Z84" s="18"/>
     </row>
-    <row r="85" spans="1:26" ht="12.75">
+    <row r="85" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
       <c r="C85" s="16"/>
@@ -3905,7 +3926,7 @@
       <c r="Y85" s="18"/>
       <c r="Z85" s="18"/>
     </row>
-    <row r="86" spans="1:26" ht="12.75">
+    <row r="86" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="16"/>
@@ -3933,7 +3954,7 @@
       <c r="Y86" s="18"/>
       <c r="Z86" s="18"/>
     </row>
-    <row r="87" spans="1:26" ht="12.75">
+    <row r="87" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="16"/>
@@ -3961,7 +3982,7 @@
       <c r="Y87" s="18"/>
       <c r="Z87" s="18"/>
     </row>
-    <row r="88" spans="1:26" ht="12.75">
+    <row r="88" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="16"/>
@@ -3989,7 +4010,7 @@
       <c r="Y88" s="18"/>
       <c r="Z88" s="18"/>
     </row>
-    <row r="89" spans="1:26" ht="12.75">
+    <row r="89" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="16"/>
@@ -4017,7 +4038,7 @@
       <c r="Y89" s="18"/>
       <c r="Z89" s="18"/>
     </row>
-    <row r="90" spans="1:26" ht="12.75">
+    <row r="90" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="16"/>
@@ -4045,7 +4066,7 @@
       <c r="Y90" s="18"/>
       <c r="Z90" s="18"/>
     </row>
-    <row r="91" spans="1:26" ht="12.75">
+    <row r="91" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
       <c r="C91" s="16"/>
@@ -4073,7 +4094,7 @@
       <c r="Y91" s="18"/>
       <c r="Z91" s="18"/>
     </row>
-    <row r="92" spans="1:26" ht="12.75">
+    <row r="92" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="16"/>
@@ -4101,7 +4122,7 @@
       <c r="Y92" s="18"/>
       <c r="Z92" s="18"/>
     </row>
-    <row r="93" spans="1:26" ht="12.75">
+    <row r="93" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="16"/>
@@ -4129,7 +4150,7 @@
       <c r="Y93" s="18"/>
       <c r="Z93" s="18"/>
     </row>
-    <row r="94" spans="1:26" ht="12.75">
+    <row r="94" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="16"/>
@@ -4157,7 +4178,7 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="95" spans="1:26" ht="12.75">
+    <row r="95" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="16"/>
@@ -4185,7 +4206,7 @@
       <c r="Y95" s="18"/>
       <c r="Z95" s="18"/>
     </row>
-    <row r="96" spans="1:26" ht="12.75">
+    <row r="96" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="23"/>
       <c r="C96" s="16"/>
@@ -4213,7 +4234,7 @@
       <c r="Y96" s="18"/>
       <c r="Z96" s="18"/>
     </row>
-    <row r="97" spans="1:26" ht="12.75">
+    <row r="97" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="23"/>
       <c r="C97" s="16"/>
@@ -4241,7 +4262,7 @@
       <c r="Y97" s="18"/>
       <c r="Z97" s="18"/>
     </row>
-    <row r="98" spans="1:26" ht="12.75">
+    <row r="98" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="23"/>
       <c r="C98" s="16"/>
@@ -4269,7 +4290,7 @@
       <c r="Y98" s="18"/>
       <c r="Z98" s="18"/>
     </row>
-    <row r="99" spans="1:26" ht="12.75">
+    <row r="99" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="16"/>
@@ -4297,7 +4318,7 @@
       <c r="Y99" s="18"/>
       <c r="Z99" s="18"/>
     </row>
-    <row r="100" spans="1:26" ht="12.75">
+    <row r="100" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="17"/>
       <c r="C100" s="16"/>
@@ -4325,7 +4346,7 @@
       <c r="Y100" s="18"/>
       <c r="Z100" s="18"/>
     </row>
-    <row r="101" spans="1:26" ht="12.75">
+    <row r="101" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="16"/>
@@ -4353,7 +4374,7 @@
       <c r="Y101" s="18"/>
       <c r="Z101" s="18"/>
     </row>
-    <row r="102" spans="1:26" ht="12.75">
+    <row r="102" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="16"/>
@@ -4381,7 +4402,7 @@
       <c r="Y102" s="18"/>
       <c r="Z102" s="18"/>
     </row>
-    <row r="103" spans="1:26" ht="12.75">
+    <row r="103" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="17"/>
       <c r="C103" s="16"/>
@@ -4409,7 +4430,7 @@
       <c r="Y103" s="18"/>
       <c r="Z103" s="18"/>
     </row>
-    <row r="104" spans="1:26" ht="12.75">
+    <row r="104" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="17"/>
       <c r="C104" s="16"/>
@@ -4437,7 +4458,7 @@
       <c r="Y104" s="18"/>
       <c r="Z104" s="18"/>
     </row>
-    <row r="105" spans="1:26" ht="12.75">
+    <row r="105" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="16"/>
@@ -4465,7 +4486,7 @@
       <c r="Y105" s="18"/>
       <c r="Z105" s="18"/>
     </row>
-    <row r="106" spans="1:26" ht="12.75">
+    <row r="106" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="17"/>
       <c r="C106" s="16"/>
@@ -4493,7 +4514,7 @@
       <c r="Y106" s="18"/>
       <c r="Z106" s="18"/>
     </row>
-    <row r="107" spans="1:26" ht="12.75">
+    <row r="107" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="16"/>
@@ -4521,7 +4542,7 @@
       <c r="Y107" s="18"/>
       <c r="Z107" s="18"/>
     </row>
-    <row r="108" spans="1:26" ht="12.75">
+    <row r="108" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="17"/>
       <c r="C108" s="16"/>
@@ -4549,7 +4570,7 @@
       <c r="Y108" s="18"/>
       <c r="Z108" s="18"/>
     </row>
-    <row r="109" spans="1:26" ht="12.75">
+    <row r="109" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="16"/>
@@ -4577,7 +4598,7 @@
       <c r="Y109" s="18"/>
       <c r="Z109" s="18"/>
     </row>
-    <row r="110" spans="1:26" ht="12.75">
+    <row r="110" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="16"/>
@@ -4605,7 +4626,7 @@
       <c r="Y110" s="18"/>
       <c r="Z110" s="18"/>
     </row>
-    <row r="111" spans="1:26" ht="12.75">
+    <row r="111" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="16"/>
@@ -4633,7 +4654,7 @@
       <c r="Y111" s="18"/>
       <c r="Z111" s="18"/>
     </row>
-    <row r="112" spans="1:26" ht="12.75">
+    <row r="112" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="B112" s="17"/>
       <c r="C112" s="16"/>
@@ -4661,7 +4682,7 @@
       <c r="Y112" s="18"/>
       <c r="Z112" s="18"/>
     </row>
-    <row r="113" spans="1:26" ht="12.75">
+    <row r="113" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="17"/>
       <c r="C113" s="16"/>
@@ -4689,7 +4710,7 @@
       <c r="Y113" s="18"/>
       <c r="Z113" s="18"/>
     </row>
-    <row r="114" spans="1:26" ht="12.75">
+    <row r="114" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="17"/>
       <c r="C114" s="16"/>
@@ -4717,7 +4738,7 @@
       <c r="Y114" s="18"/>
       <c r="Z114" s="18"/>
     </row>
-    <row r="115" spans="1:26" ht="12.75">
+    <row r="115" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
       <c r="B115" s="17"/>
       <c r="C115" s="16"/>
@@ -4745,7 +4766,7 @@
       <c r="Y115" s="18"/>
       <c r="Z115" s="18"/>
     </row>
-    <row r="116" spans="1:26" ht="12.75">
+    <row r="116" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="17"/>
       <c r="C116" s="16"/>
@@ -4773,7 +4794,7 @@
       <c r="Y116" s="18"/>
       <c r="Z116" s="18"/>
     </row>
-    <row r="117" spans="1:26" ht="12.75">
+    <row r="117" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="17"/>
       <c r="C117" s="16"/>
@@ -4801,7 +4822,7 @@
       <c r="Y117" s="18"/>
       <c r="Z117" s="18"/>
     </row>
-    <row r="118" spans="1:26" ht="12.75">
+    <row r="118" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="17"/>
       <c r="C118" s="16"/>
@@ -4829,7 +4850,7 @@
       <c r="Y118" s="18"/>
       <c r="Z118" s="18"/>
     </row>
-    <row r="119" spans="1:26" ht="12.75">
+    <row r="119" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
       <c r="B119" s="17"/>
       <c r="C119" s="16"/>
@@ -4857,7 +4878,7 @@
       <c r="Y119" s="18"/>
       <c r="Z119" s="18"/>
     </row>
-    <row r="120" spans="1:26" ht="12.75">
+    <row r="120" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="C120" s="16"/>
@@ -4885,7 +4906,7 @@
       <c r="Y120" s="18"/>
       <c r="Z120" s="18"/>
     </row>
-    <row r="121" spans="1:26" ht="12.75">
+    <row r="121" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="C121" s="16"/>
@@ -4913,7 +4934,7 @@
       <c r="Y121" s="18"/>
       <c r="Z121" s="18"/>
     </row>
-    <row r="122" spans="1:26" ht="12.75">
+    <row r="122" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="17"/>
       <c r="C122" s="16"/>
@@ -4941,7 +4962,7 @@
       <c r="Y122" s="18"/>
       <c r="Z122" s="18"/>
     </row>
-    <row r="123" spans="1:26" ht="12.75">
+    <row r="123" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="17"/>
       <c r="C123" s="16"/>
@@ -4969,7 +4990,7 @@
       <c r="Y123" s="18"/>
       <c r="Z123" s="18"/>
     </row>
-    <row r="124" spans="1:26" ht="12.75">
+    <row r="124" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="17"/>
       <c r="C124" s="16"/>
@@ -4997,7 +5018,7 @@
       <c r="Y124" s="18"/>
       <c r="Z124" s="18"/>
     </row>
-    <row r="125" spans="1:26" ht="12.75">
+    <row r="125" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="17"/>
       <c r="C125" s="16"/>
@@ -5025,7 +5046,7 @@
       <c r="Y125" s="18"/>
       <c r="Z125" s="18"/>
     </row>
-    <row r="126" spans="1:26" ht="12.75">
+    <row r="126" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A126" s="17"/>
       <c r="B126" s="17"/>
       <c r="C126" s="16"/>
@@ -5053,7 +5074,7 @@
       <c r="Y126" s="18"/>
       <c r="Z126" s="18"/>
     </row>
-    <row r="127" spans="1:26" ht="12.75">
+    <row r="127" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="16"/>
@@ -5081,7 +5102,7 @@
       <c r="Y127" s="18"/>
       <c r="Z127" s="18"/>
     </row>
-    <row r="128" spans="1:26" ht="12.75">
+    <row r="128" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A128" s="18"/>
       <c r="B128" s="17"/>
       <c r="C128" s="16"/>
@@ -5109,7 +5130,7 @@
       <c r="Y128" s="18"/>
       <c r="Z128" s="18"/>
     </row>
-    <row r="129" spans="1:26" ht="12.75">
+    <row r="129" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A129" s="18"/>
       <c r="B129" s="23"/>
       <c r="C129" s="16"/>
@@ -5137,7 +5158,7 @@
       <c r="Y129" s="18"/>
       <c r="Z129" s="18"/>
     </row>
-    <row r="130" spans="1:26" ht="12.75">
+    <row r="130" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="16"/>
@@ -5165,7 +5186,7 @@
       <c r="Y130" s="18"/>
       <c r="Z130" s="18"/>
     </row>
-    <row r="131" spans="1:26" ht="12.75">
+    <row r="131" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="17"/>
       <c r="C131" s="16"/>
@@ -5193,7 +5214,7 @@
       <c r="Y131" s="18"/>
       <c r="Z131" s="18"/>
     </row>
-    <row r="132" spans="1:26" ht="12.75">
+    <row r="132" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="17"/>
       <c r="C132" s="16"/>
@@ -5221,7 +5242,7 @@
       <c r="Y132" s="18"/>
       <c r="Z132" s="18"/>
     </row>
-    <row r="133" spans="1:26" ht="12.75">
+    <row r="133" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="18"/>
       <c r="C133" s="16"/>
@@ -5249,7 +5270,7 @@
       <c r="Y133" s="18"/>
       <c r="Z133" s="18"/>
     </row>
-    <row r="134" spans="1:26" ht="12.75">
+    <row r="134" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="18"/>
       <c r="C134" s="16"/>
@@ -5277,7 +5298,7 @@
       <c r="Y134" s="18"/>
       <c r="Z134" s="18"/>
     </row>
-    <row r="135" spans="1:26" ht="12.75">
+    <row r="135" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="18"/>
       <c r="C135" s="16"/>
@@ -5305,7 +5326,7 @@
       <c r="Y135" s="18"/>
       <c r="Z135" s="18"/>
     </row>
-    <row r="136" spans="1:26" ht="12.75">
+    <row r="136" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
       <c r="C136" s="16"/>
@@ -5333,7 +5354,7 @@
       <c r="Y136" s="18"/>
       <c r="Z136" s="18"/>
     </row>
-    <row r="137" spans="1:26" ht="12.75">
+    <row r="137" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A137" s="18"/>
       <c r="B137" s="17"/>
       <c r="C137" s="16"/>
@@ -5361,7 +5382,7 @@
       <c r="Y137" s="18"/>
       <c r="Z137" s="18"/>
     </row>
-    <row r="138" spans="1:26" ht="12.75">
+    <row r="138" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A138" s="18"/>
       <c r="B138" s="17"/>
       <c r="C138" s="16"/>
@@ -5389,7 +5410,7 @@
       <c r="Y138" s="18"/>
       <c r="Z138" s="18"/>
     </row>
-    <row r="139" spans="1:26" ht="12.75">
+    <row r="139" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
       <c r="C139" s="16"/>
@@ -5417,7 +5438,7 @@
       <c r="Y139" s="18"/>
       <c r="Z139" s="18"/>
     </row>
-    <row r="140" spans="1:26" ht="12.75">
+    <row r="140" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="18"/>
       <c r="C140" s="16"/>
@@ -5445,7 +5466,7 @@
       <c r="Y140" s="18"/>
       <c r="Z140" s="18"/>
     </row>
-    <row r="141" spans="1:26" ht="12.75">
+    <row r="141" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="18"/>
       <c r="C141" s="16"/>
@@ -5473,7 +5494,7 @@
       <c r="Y141" s="18"/>
       <c r="Z141" s="18"/>
     </row>
-    <row r="142" spans="1:26" ht="12.75">
+    <row r="142" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
       <c r="B142" s="18"/>
       <c r="C142" s="16"/>
@@ -5501,7 +5522,7 @@
       <c r="Y142" s="18"/>
       <c r="Z142" s="18"/>
     </row>
-    <row r="143" spans="1:26" ht="12.75">
+    <row r="143" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="16"/>
@@ -5529,7 +5550,7 @@
       <c r="Y143" s="18"/>
       <c r="Z143" s="18"/>
     </row>
-    <row r="144" spans="1:26" ht="12.75">
+    <row r="144" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
       <c r="B144" s="18"/>
       <c r="C144" s="16"/>
@@ -5557,7 +5578,7 @@
       <c r="Y144" s="18"/>
       <c r="Z144" s="18"/>
     </row>
-    <row r="145" spans="1:26" ht="12.75">
+    <row r="145" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="16"/>
@@ -5585,7 +5606,7 @@
       <c r="Y145" s="18"/>
       <c r="Z145" s="18"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75">
+    <row r="146" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" s="17"/>
       <c r="C146" s="16"/>
@@ -5613,7 +5634,7 @@
       <c r="Y146" s="18"/>
       <c r="Z146" s="18"/>
     </row>
-    <row r="147" spans="1:26" ht="12.75">
+    <row r="147" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="17"/>
       <c r="C147" s="16"/>
@@ -5641,7 +5662,7 @@
       <c r="Y147" s="18"/>
       <c r="Z147" s="18"/>
     </row>
-    <row r="148" spans="1:26" ht="12.75">
+    <row r="148" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
       <c r="C148" s="16"/>
@@ -5669,7 +5690,7 @@
       <c r="Y148" s="18"/>
       <c r="Z148" s="18"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75">
+    <row r="149" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A149" s="18"/>
       <c r="B149" s="23"/>
       <c r="C149" s="16"/>
@@ -5697,7 +5718,7 @@
       <c r="Y149" s="18"/>
       <c r="Z149" s="18"/>
     </row>
-    <row r="150" spans="1:26" ht="12.75">
+    <row r="150" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A150" s="18"/>
       <c r="B150" s="23"/>
       <c r="C150" s="16"/>
@@ -5725,7 +5746,7 @@
       <c r="Y150" s="18"/>
       <c r="Z150" s="18"/>
     </row>
-    <row r="151" spans="1:26" ht="12.75">
+    <row r="151" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
       <c r="C151" s="16"/>
@@ -5753,7 +5774,7 @@
       <c r="Y151" s="18"/>
       <c r="Z151" s="18"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75">
+    <row r="152" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="17"/>
       <c r="C152" s="16"/>
@@ -5781,7 +5802,7 @@
       <c r="Y152" s="18"/>
       <c r="Z152" s="18"/>
     </row>
-    <row r="153" spans="1:26" ht="12.75">
+    <row r="153" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
       <c r="B153" s="17"/>
       <c r="C153" s="16"/>
@@ -5809,7 +5830,7 @@
       <c r="Y153" s="18"/>
       <c r="Z153" s="18"/>
     </row>
-    <row r="154" spans="1:26" ht="12.75">
+    <row r="154" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
       <c r="C154" s="16"/>
@@ -5837,7 +5858,7 @@
       <c r="Y154" s="18"/>
       <c r="Z154" s="18"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75">
+    <row r="155" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="16"/>
@@ -5865,7 +5886,7 @@
       <c r="Y155" s="18"/>
       <c r="Z155" s="18"/>
     </row>
-    <row r="156" spans="1:26" ht="12.75">
+    <row r="156" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A156" s="18"/>
       <c r="B156" s="18"/>
       <c r="C156" s="16"/>
@@ -5893,7 +5914,7 @@
       <c r="Y156" s="18"/>
       <c r="Z156" s="18"/>
     </row>
-    <row r="157" spans="1:26" ht="12.75">
+    <row r="157" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
       <c r="C157" s="16"/>
@@ -5921,7 +5942,7 @@
       <c r="Y157" s="18"/>
       <c r="Z157" s="18"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75">
+    <row r="158" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A158" s="22"/>
       <c r="B158" s="17"/>
       <c r="C158" s="16"/>
@@ -5949,7 +5970,7 @@
       <c r="Y158" s="18"/>
       <c r="Z158" s="18"/>
     </row>
-    <row r="159" spans="1:26" ht="12.75">
+    <row r="159" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A159" s="22"/>
       <c r="B159" s="17"/>
       <c r="C159" s="16"/>
@@ -5977,7 +5998,7 @@
       <c r="Y159" s="18"/>
       <c r="Z159" s="18"/>
     </row>
-    <row r="160" spans="1:26" ht="12.75">
+    <row r="160" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A160" s="22"/>
       <c r="B160" s="17"/>
       <c r="C160" s="16"/>
@@ -6005,7 +6026,7 @@
       <c r="Y160" s="18"/>
       <c r="Z160" s="18"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75">
+    <row r="161" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A161" s="22"/>
       <c r="B161" s="17"/>
       <c r="C161" s="16"/>
@@ -6033,7 +6054,7 @@
       <c r="Y161" s="18"/>
       <c r="Z161" s="18"/>
     </row>
-    <row r="162" spans="1:26" ht="12.75">
+    <row r="162" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
       <c r="C162" s="16"/>
@@ -6061,7 +6082,7 @@
       <c r="Y162" s="18"/>
       <c r="Z162" s="18"/>
     </row>
-    <row r="163" spans="1:26" ht="12.75">
+    <row r="163" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A163" s="18"/>
       <c r="B163" s="17"/>
       <c r="C163" s="16"/>
@@ -6089,7 +6110,7 @@
       <c r="Y163" s="18"/>
       <c r="Z163" s="18"/>
     </row>
-    <row r="164" spans="1:26" ht="12.75">
+    <row r="164" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A164" s="18"/>
       <c r="B164" s="17"/>
       <c r="C164" s="16"/>
@@ -6117,7 +6138,7 @@
       <c r="Y164" s="18"/>
       <c r="Z164" s="18"/>
     </row>
-    <row r="165" spans="1:26" ht="12.75">
+    <row r="165" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A165" s="18"/>
       <c r="B165" s="17"/>
       <c r="C165" s="16"/>
@@ -6145,7 +6166,7 @@
       <c r="Y165" s="18"/>
       <c r="Z165" s="18"/>
     </row>
-    <row r="166" spans="1:26" ht="12.75">
+    <row r="166" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A166" s="18"/>
       <c r="B166" s="17"/>
       <c r="C166" s="16"/>
@@ -6173,7 +6194,7 @@
       <c r="Y166" s="18"/>
       <c r="Z166" s="18"/>
     </row>
-    <row r="167" spans="1:26" ht="12.75">
+    <row r="167" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A167" s="18"/>
       <c r="B167" s="17"/>
       <c r="C167" s="16"/>
@@ -6201,7 +6222,7 @@
       <c r="Y167" s="18"/>
       <c r="Z167" s="18"/>
     </row>
-    <row r="168" spans="1:26" ht="12.75">
+    <row r="168" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A168" s="18"/>
       <c r="B168" s="17"/>
       <c r="C168" s="16"/>
@@ -6229,7 +6250,7 @@
       <c r="Y168" s="18"/>
       <c r="Z168" s="18"/>
     </row>
-    <row r="169" spans="1:26" ht="12.75">
+    <row r="169" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A169" s="18"/>
       <c r="B169" s="17"/>
       <c r="C169" s="16"/>
@@ -6257,7 +6278,7 @@
       <c r="Y169" s="18"/>
       <c r="Z169" s="18"/>
     </row>
-    <row r="170" spans="1:26" ht="12.75">
+    <row r="170" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
       <c r="B170" s="17"/>
       <c r="C170" s="16"/>
@@ -6285,7 +6306,7 @@
       <c r="Y170" s="18"/>
       <c r="Z170" s="18"/>
     </row>
-    <row r="171" spans="1:26" ht="12.75">
+    <row r="171" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
       <c r="B171" s="17"/>
       <c r="C171" s="16"/>
@@ -6313,7 +6334,7 @@
       <c r="Y171" s="18"/>
       <c r="Z171" s="18"/>
     </row>
-    <row r="172" spans="1:26" ht="12.75">
+    <row r="172" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
       <c r="B172" s="17"/>
       <c r="C172" s="16"/>
@@ -6341,7 +6362,7 @@
       <c r="Y172" s="18"/>
       <c r="Z172" s="18"/>
     </row>
-    <row r="173" spans="1:26" ht="12.75">
+    <row r="173" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
       <c r="B173" s="17"/>
       <c r="C173" s="16"/>
@@ -6369,7 +6390,7 @@
       <c r="Y173" s="18"/>
       <c r="Z173" s="18"/>
     </row>
-    <row r="174" spans="1:26" ht="12.75">
+    <row r="174" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
       <c r="B174" s="17"/>
       <c r="C174" s="16"/>
@@ -6397,7 +6418,7 @@
       <c r="Y174" s="18"/>
       <c r="Z174" s="18"/>
     </row>
-    <row r="175" spans="1:26" ht="12.75">
+    <row r="175" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
       <c r="B175" s="17"/>
       <c r="C175" s="16"/>
@@ -6425,7 +6446,7 @@
       <c r="Y175" s="18"/>
       <c r="Z175" s="18"/>
     </row>
-    <row r="176" spans="1:26" ht="12.75">
+    <row r="176" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="16"/>
@@ -6453,7 +6474,7 @@
       <c r="Y176" s="18"/>
       <c r="Z176" s="18"/>
     </row>
-    <row r="177" spans="1:26" ht="12.75">
+    <row r="177" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A177" s="18"/>
       <c r="B177" s="17"/>
       <c r="C177" s="16"/>
@@ -6481,7 +6502,7 @@
       <c r="Y177" s="18"/>
       <c r="Z177" s="18"/>
     </row>
-    <row r="178" spans="1:26" ht="12.75">
+    <row r="178" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
       <c r="B178" s="17"/>
       <c r="C178" s="16"/>
@@ -6509,7 +6530,7 @@
       <c r="Y178" s="18"/>
       <c r="Z178" s="18"/>
     </row>
-    <row r="179" spans="1:26" ht="12.75">
+    <row r="179" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A179" s="18"/>
       <c r="B179" s="17"/>
       <c r="C179" s="16"/>
@@ -6537,7 +6558,7 @@
       <c r="Y179" s="18"/>
       <c r="Z179" s="18"/>
     </row>
-    <row r="180" spans="1:26" ht="12.75">
+    <row r="180" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A180" s="18"/>
       <c r="B180" s="17"/>
       <c r="C180" s="16"/>
@@ -6565,7 +6586,7 @@
       <c r="Y180" s="18"/>
       <c r="Z180" s="18"/>
     </row>
-    <row r="181" spans="1:26" ht="12.75">
+    <row r="181" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A181" s="18"/>
       <c r="B181" s="17"/>
       <c r="C181" s="16"/>
@@ -6593,7 +6614,7 @@
       <c r="Y181" s="18"/>
       <c r="Z181" s="18"/>
     </row>
-    <row r="182" spans="1:26" ht="12.75">
+    <row r="182" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A182" s="18"/>
       <c r="B182" s="17"/>
       <c r="C182" s="16"/>
@@ -6621,7 +6642,7 @@
       <c r="Y182" s="18"/>
       <c r="Z182" s="18"/>
     </row>
-    <row r="183" spans="1:26" ht="12.75">
+    <row r="183" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="17"/>
       <c r="C183" s="16"/>
@@ -6649,7 +6670,7 @@
       <c r="Y183" s="18"/>
       <c r="Z183" s="18"/>
     </row>
-    <row r="184" spans="1:26" ht="12.75">
+    <row r="184" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A184" s="18"/>
       <c r="B184" s="17"/>
       <c r="C184" s="16"/>
@@ -6677,7 +6698,7 @@
       <c r="Y184" s="18"/>
       <c r="Z184" s="18"/>
     </row>
-    <row r="185" spans="1:26" ht="12.75">
+    <row r="185" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
       <c r="C185" s="16"/>
@@ -6705,7 +6726,7 @@
       <c r="Y185" s="18"/>
       <c r="Z185" s="18"/>
     </row>
-    <row r="186" spans="1:26" ht="12.75">
+    <row r="186" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
       <c r="B186" s="18"/>
       <c r="C186" s="16"/>
@@ -6733,7 +6754,7 @@
       <c r="Y186" s="18"/>
       <c r="Z186" s="18"/>
     </row>
-    <row r="187" spans="1:26" ht="12.75">
+    <row r="187" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
       <c r="B187" s="18"/>
       <c r="C187" s="16"/>
@@ -6761,7 +6782,7 @@
       <c r="Y187" s="18"/>
       <c r="Z187" s="18"/>
     </row>
-    <row r="188" spans="1:26" ht="12.75">
+    <row r="188" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A188" s="17"/>
       <c r="B188" s="18"/>
       <c r="C188" s="16"/>
@@ -6789,7 +6810,7 @@
       <c r="Y188" s="18"/>
       <c r="Z188" s="18"/>
     </row>
-    <row r="189" spans="1:26" ht="12.75">
+    <row r="189" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A189" s="17"/>
       <c r="B189" s="18"/>
       <c r="C189" s="16"/>
@@ -6817,7 +6838,7 @@
       <c r="Y189" s="18"/>
       <c r="Z189" s="18"/>
     </row>
-    <row r="190" spans="1:26" ht="12.75">
+    <row r="190" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
       <c r="B190" s="18"/>
       <c r="C190" s="16"/>
@@ -6845,7 +6866,7 @@
       <c r="Y190" s="18"/>
       <c r="Z190" s="18"/>
     </row>
-    <row r="191" spans="1:26" ht="12.75">
+    <row r="191" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A191" s="17"/>
       <c r="B191" s="18"/>
       <c r="C191" s="16"/>
@@ -6873,7 +6894,7 @@
       <c r="Y191" s="18"/>
       <c r="Z191" s="18"/>
     </row>
-    <row r="192" spans="1:26" ht="12.75">
+    <row r="192" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
       <c r="B192" s="17"/>
       <c r="C192" s="16"/>
@@ -6901,7 +6922,7 @@
       <c r="Y192" s="18"/>
       <c r="Z192" s="18"/>
     </row>
-    <row r="193" spans="1:26" ht="12.75">
+    <row r="193" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
       <c r="B193" s="18"/>
       <c r="C193" s="16"/>
@@ -6929,7 +6950,7 @@
       <c r="Y193" s="18"/>
       <c r="Z193" s="18"/>
     </row>
-    <row r="194" spans="1:26" ht="12.75">
+    <row r="194" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
       <c r="C194" s="16"/>
@@ -6957,7 +6978,7 @@
       <c r="Y194" s="18"/>
       <c r="Z194" s="18"/>
     </row>
-    <row r="195" spans="1:26" ht="12.75">
+    <row r="195" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
       <c r="B195" s="17"/>
       <c r="C195" s="16"/>
@@ -6985,7 +7006,7 @@
       <c r="Y195" s="18"/>
       <c r="Z195" s="18"/>
     </row>
-    <row r="196" spans="1:26" ht="12.75">
+    <row r="196" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
       <c r="B196" s="17"/>
       <c r="C196" s="16"/>
@@ -7013,7 +7034,7 @@
       <c r="Y196" s="18"/>
       <c r="Z196" s="18"/>
     </row>
-    <row r="197" spans="1:26" ht="12.75">
+    <row r="197" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A197" s="17"/>
       <c r="B197" s="17"/>
       <c r="C197" s="16"/>
@@ -7041,7 +7062,7 @@
       <c r="Y197" s="18"/>
       <c r="Z197" s="18"/>
     </row>
-    <row r="198" spans="1:26" ht="12.75">
+    <row r="198" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
       <c r="B198" s="17"/>
       <c r="C198" s="16"/>
@@ -7069,7 +7090,7 @@
       <c r="Y198" s="18"/>
       <c r="Z198" s="18"/>
     </row>
-    <row r="199" spans="1:26" ht="12.75">
+    <row r="199" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
       <c r="B199" s="17"/>
       <c r="C199" s="16"/>
@@ -7097,7 +7118,7 @@
       <c r="Y199" s="18"/>
       <c r="Z199" s="18"/>
     </row>
-    <row r="200" spans="1:26" ht="12.75">
+    <row r="200" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
       <c r="B200" s="17"/>
       <c r="C200" s="16"/>
@@ -7125,7 +7146,7 @@
       <c r="Y200" s="18"/>
       <c r="Z200" s="18"/>
     </row>
-    <row r="201" spans="1:26" ht="12.75">
+    <row r="201" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
       <c r="B201" s="17"/>
       <c r="C201" s="16"/>
@@ -7153,7 +7174,7 @@
       <c r="Y201" s="18"/>
       <c r="Z201" s="18"/>
     </row>
-    <row r="202" spans="1:26" ht="12.75">
+    <row r="202" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
       <c r="B202" s="17"/>
       <c r="C202" s="16"/>
@@ -7181,7 +7202,7 @@
       <c r="Y202" s="18"/>
       <c r="Z202" s="18"/>
     </row>
-    <row r="203" spans="1:26" ht="12.75">
+    <row r="203" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A203" s="18"/>
       <c r="B203" s="18"/>
       <c r="C203" s="16"/>
@@ -7209,7 +7230,7 @@
       <c r="Y203" s="18"/>
       <c r="Z203" s="18"/>
     </row>
-    <row r="204" spans="1:26" ht="12.75">
+    <row r="204" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A204" s="17"/>
       <c r="B204" s="18"/>
       <c r="C204" s="16"/>
@@ -7237,7 +7258,7 @@
       <c r="Y204" s="18"/>
       <c r="Z204" s="18"/>
     </row>
-    <row r="205" spans="1:26" ht="12.75">
+    <row r="205" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
       <c r="B205" s="18"/>
       <c r="C205" s="16"/>
@@ -7265,7 +7286,7 @@
       <c r="Y205" s="18"/>
       <c r="Z205" s="18"/>
     </row>
-    <row r="206" spans="1:26" ht="12.75">
+    <row r="206" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
       <c r="B206" s="18"/>
       <c r="C206" s="16"/>
@@ -7293,7 +7314,7 @@
       <c r="Y206" s="18"/>
       <c r="Z206" s="18"/>
     </row>
-    <row r="207" spans="1:26" ht="12.75">
+    <row r="207" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A207" s="17"/>
       <c r="B207" s="18"/>
       <c r="C207" s="16"/>
@@ -7321,7 +7342,7 @@
       <c r="Y207" s="18"/>
       <c r="Z207" s="18"/>
     </row>
-    <row r="208" spans="1:26" ht="12.75">
+    <row r="208" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
       <c r="B208" s="18"/>
       <c r="C208" s="16"/>
@@ -7349,7 +7370,7 @@
       <c r="Y208" s="18"/>
       <c r="Z208" s="18"/>
     </row>
-    <row r="209" spans="1:26" ht="12.75">
+    <row r="209" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
       <c r="B209" s="18"/>
       <c r="C209" s="16"/>
@@ -7377,7 +7398,7 @@
       <c r="Y209" s="18"/>
       <c r="Z209" s="18"/>
     </row>
-    <row r="210" spans="1:26" ht="12.75">
+    <row r="210" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
       <c r="B210" s="18"/>
       <c r="C210" s="16"/>
@@ -7405,7 +7426,7 @@
       <c r="Y210" s="18"/>
       <c r="Z210" s="18"/>
     </row>
-    <row r="211" spans="1:26" ht="12.75">
+    <row r="211" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
       <c r="B211" s="18"/>
       <c r="C211" s="16"/>
@@ -7433,7 +7454,7 @@
       <c r="Y211" s="18"/>
       <c r="Z211" s="18"/>
     </row>
-    <row r="212" spans="1:26" ht="12.75">
+    <row r="212" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A212" s="18"/>
       <c r="B212" s="18"/>
       <c r="C212" s="16"/>
@@ -7461,7 +7482,7 @@
       <c r="Y212" s="18"/>
       <c r="Z212" s="18"/>
     </row>
-    <row r="213" spans="1:26" ht="12.75">
+    <row r="213" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
       <c r="B213" s="18"/>
       <c r="C213" s="16"/>
@@ -7489,7 +7510,7 @@
       <c r="Y213" s="18"/>
       <c r="Z213" s="18"/>
     </row>
-    <row r="214" spans="1:26" ht="12.75">
+    <row r="214" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A214" s="17"/>
       <c r="B214" s="18"/>
       <c r="C214" s="16"/>
@@ -7517,7 +7538,7 @@
       <c r="Y214" s="18"/>
       <c r="Z214" s="18"/>
     </row>
-    <row r="215" spans="1:26" ht="12.75">
+    <row r="215" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A215" s="17"/>
       <c r="B215" s="18"/>
       <c r="C215" s="16"/>
@@ -7545,7 +7566,7 @@
       <c r="Y215" s="18"/>
       <c r="Z215" s="18"/>
     </row>
-    <row r="216" spans="1:26" ht="12.75">
+    <row r="216" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A216" s="17"/>
       <c r="B216" s="18"/>
       <c r="C216" s="16"/>
@@ -7573,7 +7594,7 @@
       <c r="Y216" s="18"/>
       <c r="Z216" s="18"/>
     </row>
-    <row r="217" spans="1:26" ht="12.75">
+    <row r="217" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A217" s="17"/>
       <c r="B217" s="18"/>
       <c r="C217" s="16"/>
@@ -7601,7 +7622,7 @@
       <c r="Y217" s="18"/>
       <c r="Z217" s="18"/>
     </row>
-    <row r="218" spans="1:26" ht="12.75">
+    <row r="218" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A218" s="17"/>
       <c r="B218" s="18"/>
       <c r="C218" s="16"/>
@@ -7629,7 +7650,7 @@
       <c r="Y218" s="18"/>
       <c r="Z218" s="18"/>
     </row>
-    <row r="219" spans="1:26" ht="12.75">
+    <row r="219" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
       <c r="C219" s="16"/>
@@ -7657,7 +7678,7 @@
       <c r="Y219" s="18"/>
       <c r="Z219" s="18"/>
     </row>
-    <row r="220" spans="1:26" ht="12.75">
+    <row r="220" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A220" s="17"/>
       <c r="B220" s="18"/>
       <c r="C220" s="16"/>
@@ -7685,7 +7706,7 @@
       <c r="Y220" s="18"/>
       <c r="Z220" s="18"/>
     </row>
-    <row r="221" spans="1:26" ht="12.75">
+    <row r="221" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A221" s="18"/>
       <c r="B221" s="18"/>
       <c r="C221" s="16"/>
@@ -7713,7 +7734,7 @@
       <c r="Y221" s="18"/>
       <c r="Z221" s="18"/>
     </row>
-    <row r="222" spans="1:26" ht="12.75">
+    <row r="222" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
       <c r="B222" s="18"/>
       <c r="C222" s="16"/>
@@ -7741,7 +7762,7 @@
       <c r="Y222" s="18"/>
       <c r="Z222" s="18"/>
     </row>
-    <row r="223" spans="1:26" ht="12.75">
+    <row r="223" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
       <c r="B223" s="18"/>
       <c r="C223" s="16"/>
@@ -7769,7 +7790,7 @@
       <c r="Y223" s="18"/>
       <c r="Z223" s="18"/>
     </row>
-    <row r="224" spans="1:26" ht="12.75">
+    <row r="224" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
       <c r="B224" s="18"/>
       <c r="C224" s="16"/>
@@ -7797,7 +7818,7 @@
       <c r="Y224" s="18"/>
       <c r="Z224" s="18"/>
     </row>
-    <row r="225" spans="1:26" ht="12.75">
+    <row r="225" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
       <c r="B225" s="18"/>
       <c r="C225" s="16"/>
@@ -7825,7 +7846,7 @@
       <c r="Y225" s="18"/>
       <c r="Z225" s="18"/>
     </row>
-    <row r="226" spans="1:26" ht="12.75">
+    <row r="226" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
       <c r="B226" s="18"/>
       <c r="C226" s="16"/>
@@ -7853,7 +7874,7 @@
       <c r="Y226" s="18"/>
       <c r="Z226" s="18"/>
     </row>
-    <row r="227" spans="1:26" ht="12.75">
+    <row r="227" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
       <c r="B227" s="18"/>
       <c r="C227" s="16"/>
@@ -7881,7 +7902,7 @@
       <c r="Y227" s="18"/>
       <c r="Z227" s="18"/>
     </row>
-    <row r="228" spans="1:26" ht="12.75">
+    <row r="228" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
       <c r="B228" s="18"/>
       <c r="C228" s="16"/>
@@ -7909,7 +7930,7 @@
       <c r="Y228" s="18"/>
       <c r="Z228" s="18"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75">
+    <row r="229" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
       <c r="B229" s="18"/>
       <c r="C229" s="16"/>
@@ -7937,7 +7958,7 @@
       <c r="Y229" s="18"/>
       <c r="Z229" s="18"/>
     </row>
-    <row r="230" spans="1:26" ht="12.75">
+    <row r="230" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A230" s="18"/>
       <c r="B230" s="18"/>
       <c r="C230" s="16"/>
@@ -7965,7 +7986,7 @@
       <c r="Y230" s="18"/>
       <c r="Z230" s="18"/>
     </row>
-    <row r="231" spans="1:26" ht="12.75">
+    <row r="231" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A231" s="18"/>
       <c r="B231" s="17"/>
       <c r="C231" s="16"/>
@@ -7993,7 +8014,7 @@
       <c r="Y231" s="18"/>
       <c r="Z231" s="18"/>
     </row>
-    <row r="232" spans="1:26" ht="12.75">
+    <row r="232" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A232" s="18"/>
       <c r="B232" s="17"/>
       <c r="C232" s="16"/>
@@ -8021,7 +8042,7 @@
       <c r="Y232" s="18"/>
       <c r="Z232" s="18"/>
     </row>
-    <row r="233" spans="1:26" ht="12.75">
+    <row r="233" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A233" s="18"/>
       <c r="B233" s="17"/>
       <c r="C233" s="16"/>
@@ -8049,7 +8070,7 @@
       <c r="Y233" s="18"/>
       <c r="Z233" s="18"/>
     </row>
-    <row r="234" spans="1:26" ht="12.75">
+    <row r="234" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A234" s="18"/>
       <c r="B234" s="18"/>
       <c r="C234" s="16"/>
@@ -8077,7 +8098,7 @@
       <c r="Y234" s="18"/>
       <c r="Z234" s="18"/>
     </row>
-    <row r="235" spans="1:26" ht="12.75">
+    <row r="235" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
       <c r="B235" s="18"/>
       <c r="C235" s="16"/>
@@ -8105,7 +8126,7 @@
       <c r="Y235" s="18"/>
       <c r="Z235" s="18"/>
     </row>
-    <row r="236" spans="1:26" ht="12.75">
+    <row r="236" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
       <c r="B236" s="18"/>
       <c r="C236" s="16"/>
@@ -8133,7 +8154,7 @@
       <c r="Y236" s="18"/>
       <c r="Z236" s="18"/>
     </row>
-    <row r="237" spans="1:26" ht="12.75">
+    <row r="237" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
       <c r="C237" s="16"/>
@@ -8161,7 +8182,7 @@
       <c r="Y237" s="18"/>
       <c r="Z237" s="18"/>
     </row>
-    <row r="238" spans="1:26" ht="12.75">
+    <row r="238" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A238" s="18"/>
       <c r="B238" s="18"/>
       <c r="C238" s="16"/>
@@ -8189,7 +8210,7 @@
       <c r="Y238" s="18"/>
       <c r="Z238" s="18"/>
     </row>
-    <row r="239" spans="1:26" ht="12.75">
+    <row r="239" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A239" s="18"/>
       <c r="B239" s="23"/>
       <c r="C239" s="16"/>
@@ -8217,7 +8238,7 @@
       <c r="Y239" s="18"/>
       <c r="Z239" s="18"/>
     </row>
-    <row r="240" spans="1:26" ht="12.75">
+    <row r="240" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A240" s="18"/>
       <c r="B240" s="23"/>
       <c r="C240" s="16"/>
@@ -8245,7 +8266,7 @@
       <c r="Y240" s="18"/>
       <c r="Z240" s="18"/>
     </row>
-    <row r="241" spans="1:26" ht="12.75">
+    <row r="241" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A241" s="18"/>
       <c r="B241" s="23"/>
       <c r="C241" s="16"/>
@@ -8273,7 +8294,7 @@
       <c r="Y241" s="18"/>
       <c r="Z241" s="18"/>
     </row>
-    <row r="242" spans="1:26" ht="12.75">
+    <row r="242" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A242" s="18"/>
       <c r="B242" s="23"/>
       <c r="C242" s="16"/>
@@ -8301,7 +8322,7 @@
       <c r="Y242" s="18"/>
       <c r="Z242" s="18"/>
     </row>
-    <row r="243" spans="1:26" ht="12.75">
+    <row r="243" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A243" s="18"/>
       <c r="B243" s="23"/>
       <c r="C243" s="16"/>
@@ -8329,7 +8350,7 @@
       <c r="Y243" s="18"/>
       <c r="Z243" s="18"/>
     </row>
-    <row r="244" spans="1:26" ht="12.75">
+    <row r="244" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A244" s="18"/>
       <c r="B244" s="23"/>
       <c r="C244" s="16"/>
@@ -8357,7 +8378,7 @@
       <c r="Y244" s="18"/>
       <c r="Z244" s="18"/>
     </row>
-    <row r="245" spans="1:26" ht="12.75">
+    <row r="245" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A245" s="18"/>
       <c r="B245" s="18"/>
       <c r="C245" s="16"/>
@@ -8385,7 +8406,7 @@
       <c r="Y245" s="18"/>
       <c r="Z245" s="18"/>
     </row>
-    <row r="246" spans="1:26" ht="12.75">
+    <row r="246" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A246" s="18"/>
       <c r="B246" s="17"/>
       <c r="C246" s="16"/>
@@ -8413,7 +8434,7 @@
       <c r="Y246" s="18"/>
       <c r="Z246" s="18"/>
     </row>
-    <row r="247" spans="1:26" ht="12.75">
+    <row r="247" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A247" s="18"/>
       <c r="B247" s="17"/>
       <c r="C247" s="16"/>
@@ -8441,7 +8462,7 @@
       <c r="Y247" s="18"/>
       <c r="Z247" s="18"/>
     </row>
-    <row r="248" spans="1:26" ht="12.75">
+    <row r="248" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A248" s="18"/>
       <c r="B248" s="17"/>
       <c r="C248" s="16"/>
@@ -8469,7 +8490,7 @@
       <c r="Y248" s="18"/>
       <c r="Z248" s="18"/>
     </row>
-    <row r="249" spans="1:26" ht="12.75">
+    <row r="249" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A249" s="18"/>
       <c r="B249" s="17"/>
       <c r="C249" s="16"/>
@@ -8497,7 +8518,7 @@
       <c r="Y249" s="18"/>
       <c r="Z249" s="18"/>
     </row>
-    <row r="250" spans="1:26" ht="12.75">
+    <row r="250" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A250" s="18"/>
       <c r="B250" s="17"/>
       <c r="C250" s="16"/>
@@ -8525,7 +8546,7 @@
       <c r="Y250" s="18"/>
       <c r="Z250" s="18"/>
     </row>
-    <row r="251" spans="1:26" ht="12.75">
+    <row r="251" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A251" s="18"/>
       <c r="B251" s="17"/>
       <c r="C251" s="16"/>
@@ -8553,7 +8574,7 @@
       <c r="Y251" s="18"/>
       <c r="Z251" s="18"/>
     </row>
-    <row r="252" spans="1:26" ht="12.75">
+    <row r="252" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A252" s="18"/>
       <c r="B252" s="18"/>
       <c r="C252" s="16"/>
@@ -8581,7 +8602,7 @@
       <c r="Y252" s="18"/>
       <c r="Z252" s="18"/>
     </row>
-    <row r="253" spans="1:26" ht="12.75">
+    <row r="253" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
       <c r="B253" s="17"/>
       <c r="C253" s="16"/>
@@ -8609,7 +8630,7 @@
       <c r="Y253" s="18"/>
       <c r="Z253" s="18"/>
     </row>
-    <row r="254" spans="1:26" ht="12.75">
+    <row r="254" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A254" s="17"/>
       <c r="B254" s="17"/>
       <c r="C254" s="16"/>
@@ -8637,7 +8658,7 @@
       <c r="Y254" s="18"/>
       <c r="Z254" s="18"/>
     </row>
-    <row r="255" spans="1:26" ht="12.75">
+    <row r="255" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A255" s="18"/>
       <c r="B255" s="17"/>
       <c r="C255" s="16"/>
@@ -8665,7 +8686,7 @@
       <c r="Y255" s="18"/>
       <c r="Z255" s="18"/>
     </row>
-    <row r="256" spans="1:26" ht="12.75">
+    <row r="256" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
       <c r="B256" s="17"/>
       <c r="C256" s="16"/>
@@ -8693,7 +8714,7 @@
       <c r="Y256" s="18"/>
       <c r="Z256" s="18"/>
     </row>
-    <row r="257" spans="1:26" ht="12.75">
+    <row r="257" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A257" s="18"/>
       <c r="B257" s="17"/>
       <c r="C257" s="16"/>
@@ -8721,7 +8742,7 @@
       <c r="Y257" s="18"/>
       <c r="Z257" s="18"/>
     </row>
-    <row r="258" spans="1:26" ht="12.75">
+    <row r="258" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A258" s="18"/>
       <c r="B258" s="17"/>
       <c r="C258" s="16"/>
@@ -8749,7 +8770,7 @@
       <c r="Y258" s="18"/>
       <c r="Z258" s="18"/>
     </row>
-    <row r="259" spans="1:26" ht="12.75">
+    <row r="259" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A259" s="18"/>
       <c r="B259" s="17"/>
       <c r="C259" s="16"/>
@@ -8777,7 +8798,7 @@
       <c r="Y259" s="18"/>
       <c r="Z259" s="18"/>
     </row>
-    <row r="260" spans="1:26" ht="12.75">
+    <row r="260" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A260" s="17"/>
       <c r="B260" s="17"/>
       <c r="C260" s="16"/>
@@ -8805,7 +8826,7 @@
       <c r="Y260" s="18"/>
       <c r="Z260" s="18"/>
     </row>
-    <row r="261" spans="1:26" ht="12.75">
+    <row r="261" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A261" s="18"/>
       <c r="B261" s="17"/>
       <c r="C261" s="16"/>
@@ -8833,7 +8854,7 @@
       <c r="Y261" s="18"/>
       <c r="Z261" s="18"/>
     </row>
-    <row r="262" spans="1:26" ht="12.75">
+    <row r="262" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A262" s="18"/>
       <c r="B262" s="17"/>
       <c r="C262" s="16"/>
@@ -8861,7 +8882,7 @@
       <c r="Y262" s="18"/>
       <c r="Z262" s="18"/>
     </row>
-    <row r="263" spans="1:26" ht="12.75">
+    <row r="263" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A263" s="18"/>
       <c r="B263" s="17"/>
       <c r="C263" s="16"/>
@@ -8889,7 +8910,7 @@
       <c r="Y263" s="18"/>
       <c r="Z263" s="18"/>
     </row>
-    <row r="264" spans="1:26" ht="12.75">
+    <row r="264" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A264" s="18"/>
       <c r="B264" s="17"/>
       <c r="C264" s="16"/>
@@ -8917,7 +8938,7 @@
       <c r="Y264" s="18"/>
       <c r="Z264" s="18"/>
     </row>
-    <row r="265" spans="1:26" ht="12.75">
+    <row r="265" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A265" s="18"/>
       <c r="B265" s="17"/>
       <c r="C265" s="16"/>
@@ -8945,7 +8966,7 @@
       <c r="Y265" s="18"/>
       <c r="Z265" s="18"/>
     </row>
-    <row r="266" spans="1:26" ht="12.75">
+    <row r="266" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A266" s="18"/>
       <c r="B266" s="17"/>
       <c r="C266" s="16"/>
@@ -8973,7 +8994,7 @@
       <c r="Y266" s="18"/>
       <c r="Z266" s="18"/>
     </row>
-    <row r="267" spans="1:26" ht="12.75">
+    <row r="267" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A267" s="18"/>
       <c r="B267" s="17"/>
       <c r="C267" s="16"/>
@@ -9001,7 +9022,7 @@
       <c r="Y267" s="18"/>
       <c r="Z267" s="18"/>
     </row>
-    <row r="268" spans="1:26" ht="12.75">
+    <row r="268" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A268" s="18"/>
       <c r="B268" s="17"/>
       <c r="C268" s="16"/>
@@ -9029,7 +9050,7 @@
       <c r="Y268" s="18"/>
       <c r="Z268" s="18"/>
     </row>
-    <row r="269" spans="1:26" ht="12.75">
+    <row r="269" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A269" s="18"/>
       <c r="B269" s="17"/>
       <c r="C269" s="16"/>
@@ -9057,7 +9078,7 @@
       <c r="Y269" s="18"/>
       <c r="Z269" s="18"/>
     </row>
-    <row r="270" spans="1:26" ht="12.75">
+    <row r="270" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A270" s="18"/>
       <c r="B270" s="17"/>
       <c r="C270" s="16"/>
@@ -9085,7 +9106,7 @@
       <c r="Y270" s="18"/>
       <c r="Z270" s="18"/>
     </row>
-    <row r="271" spans="1:26" ht="12.75">
+    <row r="271" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A271" s="18"/>
       <c r="B271" s="17"/>
       <c r="C271" s="16"/>
@@ -9113,7 +9134,7 @@
       <c r="Y271" s="18"/>
       <c r="Z271" s="18"/>
     </row>
-    <row r="272" spans="1:26" ht="12.75">
+    <row r="272" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A272" s="18"/>
       <c r="B272" s="17"/>
       <c r="C272" s="16"/>
@@ -9141,7 +9162,7 @@
       <c r="Y272" s="18"/>
       <c r="Z272" s="18"/>
     </row>
-    <row r="273" spans="1:26" ht="12.75">
+    <row r="273" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A273" s="18"/>
       <c r="B273" s="17"/>
       <c r="C273" s="16"/>
@@ -9169,7 +9190,7 @@
       <c r="Y273" s="18"/>
       <c r="Z273" s="18"/>
     </row>
-    <row r="274" spans="1:26" ht="12.75">
+    <row r="274" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A274" s="18"/>
       <c r="B274" s="18"/>
       <c r="C274" s="16"/>
@@ -9197,7 +9218,7 @@
       <c r="Y274" s="18"/>
       <c r="Z274" s="18"/>
     </row>
-    <row r="275" spans="1:26" ht="12.75">
+    <row r="275" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A275" s="17"/>
       <c r="B275" s="18"/>
       <c r="C275" s="16"/>
@@ -9225,7 +9246,7 @@
       <c r="Y275" s="18"/>
       <c r="Z275" s="18"/>
     </row>
-    <row r="276" spans="1:26" ht="12.75">
+    <row r="276" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A276" s="17"/>
       <c r="B276" s="18"/>
       <c r="C276" s="16"/>
@@ -9253,7 +9274,7 @@
       <c r="Y276" s="18"/>
       <c r="Z276" s="18"/>
     </row>
-    <row r="277" spans="1:26" ht="12.75">
+    <row r="277" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A277" s="17"/>
       <c r="B277" s="18"/>
       <c r="C277" s="16"/>
@@ -9281,7 +9302,7 @@
       <c r="Y277" s="18"/>
       <c r="Z277" s="18"/>
     </row>
-    <row r="278" spans="1:26" ht="12.75">
+    <row r="278" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A278" s="17"/>
       <c r="B278" s="18"/>
       <c r="C278" s="16"/>
@@ -9309,7 +9330,7 @@
       <c r="Y278" s="18"/>
       <c r="Z278" s="18"/>
     </row>
-    <row r="279" spans="1:26" ht="12.75">
+    <row r="279" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A279" s="17"/>
       <c r="B279" s="18"/>
       <c r="C279" s="16"/>
@@ -9337,7 +9358,7 @@
       <c r="Y279" s="18"/>
       <c r="Z279" s="18"/>
     </row>
-    <row r="280" spans="1:26" ht="12.75">
+    <row r="280" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A280" s="17"/>
       <c r="B280" s="18"/>
       <c r="C280" s="16"/>
@@ -9365,7 +9386,7 @@
       <c r="Y280" s="18"/>
       <c r="Z280" s="18"/>
     </row>
-    <row r="281" spans="1:26" ht="12.75">
+    <row r="281" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A281" s="17"/>
       <c r="B281" s="18"/>
       <c r="C281" s="16"/>
@@ -9393,7 +9414,7 @@
       <c r="Y281" s="18"/>
       <c r="Z281" s="18"/>
     </row>
-    <row r="282" spans="1:26" ht="12.75">
+    <row r="282" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A282" s="17"/>
       <c r="B282" s="18"/>
       <c r="C282" s="16"/>
@@ -9421,7 +9442,7 @@
       <c r="Y282" s="18"/>
       <c r="Z282" s="18"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75">
+    <row r="283" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A283" s="17"/>
       <c r="B283" s="18"/>
       <c r="C283" s="16"/>
@@ -9449,7 +9470,7 @@
       <c r="Y283" s="18"/>
       <c r="Z283" s="18"/>
     </row>
-    <row r="284" spans="1:26" ht="12.75">
+    <row r="284" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A284" s="17"/>
       <c r="B284" s="18"/>
       <c r="C284" s="16"/>
@@ -9477,7 +9498,7 @@
       <c r="Y284" s="18"/>
       <c r="Z284" s="18"/>
     </row>
-    <row r="285" spans="1:26" ht="12.75">
+    <row r="285" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A285" s="17"/>
       <c r="B285" s="18"/>
       <c r="C285" s="16"/>
@@ -9505,7 +9526,7 @@
       <c r="Y285" s="18"/>
       <c r="Z285" s="18"/>
     </row>
-    <row r="286" spans="1:26" ht="12.75">
+    <row r="286" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A286" s="17"/>
       <c r="B286" s="18"/>
       <c r="C286" s="16"/>
@@ -9533,7 +9554,7 @@
       <c r="Y286" s="18"/>
       <c r="Z286" s="18"/>
     </row>
-    <row r="287" spans="1:26" ht="12.75">
+    <row r="287" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A287" s="18"/>
       <c r="B287" s="18"/>
       <c r="C287" s="16"/>
@@ -9561,7 +9582,7 @@
       <c r="Y287" s="18"/>
       <c r="Z287" s="18"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75">
+    <row r="288" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A288" s="18"/>
       <c r="B288" s="18"/>
       <c r="C288" s="16"/>
@@ -9589,7 +9610,7 @@
       <c r="Y288" s="18"/>
       <c r="Z288" s="18"/>
     </row>
-    <row r="289" spans="1:26" ht="12.75">
+    <row r="289" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A289" s="18"/>
       <c r="B289" s="18"/>
       <c r="C289" s="16"/>
@@ -9617,7 +9638,7 @@
       <c r="Y289" s="18"/>
       <c r="Z289" s="18"/>
     </row>
-    <row r="290" spans="1:26" ht="12.75">
+    <row r="290" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A290" s="18"/>
       <c r="B290" s="18"/>
       <c r="C290" s="16"/>
@@ -9645,7 +9666,7 @@
       <c r="Y290" s="18"/>
       <c r="Z290" s="18"/>
     </row>
-    <row r="291" spans="1:26" ht="12.75">
+    <row r="291" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A291" s="17"/>
       <c r="B291" s="18"/>
       <c r="C291" s="16"/>
@@ -9673,7 +9694,7 @@
       <c r="Y291" s="18"/>
       <c r="Z291" s="18"/>
     </row>
-    <row r="292" spans="1:26" ht="12.75">
+    <row r="292" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A292" s="18"/>
       <c r="B292" s="18"/>
       <c r="C292" s="16"/>
@@ -9701,7 +9722,7 @@
       <c r="Y292" s="18"/>
       <c r="Z292" s="18"/>
     </row>
-    <row r="293" spans="1:26" ht="12.75">
+    <row r="293" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A293" s="18"/>
       <c r="B293" s="18"/>
       <c r="C293" s="16"/>
@@ -9729,7 +9750,7 @@
       <c r="Y293" s="18"/>
       <c r="Z293" s="18"/>
     </row>
-    <row r="294" spans="1:26" ht="12.75">
+    <row r="294" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A294" s="18"/>
       <c r="B294" s="18"/>
       <c r="C294" s="16"/>
@@ -9757,7 +9778,7 @@
       <c r="Y294" s="18"/>
       <c r="Z294" s="18"/>
     </row>
-    <row r="295" spans="1:26" ht="12.75">
+    <row r="295" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A295" s="18"/>
       <c r="B295" s="18"/>
       <c r="C295" s="16"/>
@@ -9785,7 +9806,7 @@
       <c r="Y295" s="18"/>
       <c r="Z295" s="18"/>
     </row>
-    <row r="296" spans="1:26" ht="12.75">
+    <row r="296" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A296" s="18"/>
       <c r="B296" s="18"/>
       <c r="C296" s="16"/>
@@ -9813,7 +9834,7 @@
       <c r="Y296" s="18"/>
       <c r="Z296" s="18"/>
     </row>
-    <row r="297" spans="1:26" ht="12.75">
+    <row r="297" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A297" s="18"/>
       <c r="B297" s="18"/>
       <c r="C297" s="16"/>
@@ -9841,7 +9862,7 @@
       <c r="Y297" s="18"/>
       <c r="Z297" s="18"/>
     </row>
-    <row r="298" spans="1:26" ht="12.75">
+    <row r="298" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A298" s="17"/>
       <c r="B298" s="18"/>
       <c r="C298" s="16"/>
@@ -9869,7 +9890,7 @@
       <c r="Y298" s="18"/>
       <c r="Z298" s="18"/>
     </row>
-    <row r="299" spans="1:26" ht="12.75">
+    <row r="299" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A299" s="17"/>
       <c r="B299" s="18"/>
       <c r="C299" s="16"/>
@@ -9897,7 +9918,7 @@
       <c r="Y299" s="18"/>
       <c r="Z299" s="18"/>
     </row>
-    <row r="300" spans="1:26" ht="12.75">
+    <row r="300" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A300" s="17"/>
       <c r="B300" s="18"/>
       <c r="C300" s="16"/>
@@ -9925,7 +9946,7 @@
       <c r="Y300" s="18"/>
       <c r="Z300" s="18"/>
     </row>
-    <row r="301" spans="1:26" ht="12.75">
+    <row r="301" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A301" s="17"/>
       <c r="B301" s="18"/>
       <c r="C301" s="16"/>
@@ -9953,7 +9974,7 @@
       <c r="Y301" s="18"/>
       <c r="Z301" s="18"/>
     </row>
-    <row r="302" spans="1:26" ht="12.75">
+    <row r="302" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A302" s="17"/>
       <c r="B302" s="18"/>
       <c r="C302" s="16"/>
@@ -9981,7 +10002,7 @@
       <c r="Y302" s="18"/>
       <c r="Z302" s="18"/>
     </row>
-    <row r="303" spans="1:26" ht="12.75">
+    <row r="303" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A303" s="17"/>
       <c r="B303" s="18"/>
       <c r="C303" s="16"/>
@@ -10009,7 +10030,7 @@
       <c r="Y303" s="18"/>
       <c r="Z303" s="18"/>
     </row>
-    <row r="304" spans="1:26" ht="12.75">
+    <row r="304" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A304" s="17"/>
       <c r="B304" s="18"/>
       <c r="C304" s="16"/>
@@ -10037,7 +10058,7 @@
       <c r="Y304" s="18"/>
       <c r="Z304" s="18"/>
     </row>
-    <row r="305" spans="1:26" ht="12.75">
+    <row r="305" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A305" s="18"/>
       <c r="B305" s="18"/>
       <c r="C305" s="16"/>
@@ -10065,7 +10086,7 @@
       <c r="Y305" s="18"/>
       <c r="Z305" s="18"/>
     </row>
-    <row r="306" spans="1:26" ht="12.75">
+    <row r="306" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A306" s="17"/>
       <c r="B306" s="18"/>
       <c r="C306" s="16"/>
@@ -10099,22 +10120,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView topLeftCell="U50" workbookViewId="0">
       <selection activeCell="AJ83" sqref="AJ83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="9.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="25" width="9.33203125" style="41" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="41" bestFit="1" customWidth="1"/>
-    <col min="27" max="38" width="9.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.85546875" style="41"/>
+    <col min="27" max="38" width="9.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="41">
         <v>-8.6680000000000004E-3</v>
       </c>
@@ -10230,7 +10251,7 @@
         <v>9.8119999999999995E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="41">
         <v>-4.7790000000000003E-3</v>
       </c>
@@ -10346,7 +10367,7 @@
         <v>7.4749999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>1.74E-4</v>
       </c>
@@ -10462,7 +10483,7 @@
         <v>8.5579999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>4.7679999999999997E-3</v>
       </c>
@@ -10578,7 +10599,7 @@
         <v>5.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>9.3179999999999999E-3</v>
       </c>
@@ -10694,7 +10715,7 @@
         <v>4.2960000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>1.2435E-2</v>
       </c>
@@ -10810,7 +10831,7 @@
         <v>2.5019999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>1.3618E-2</v>
       </c>
@@ -10926,7 +10947,7 @@
         <v>2.643E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>1.55E-2</v>
       </c>
@@ -11042,7 +11063,7 @@
         <v>2.2070000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>1.5834999999999998E-2</v>
       </c>
@@ -11158,7 +11179,7 @@
         <v>7.6599999999999997E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>1.5720000000000001E-2</v>
       </c>
@@ -11274,7 +11295,7 @@
         <v>3.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>1.7023E-2</v>
       </c>
@@ -11390,7 +11411,7 @@
         <v>5.9100000000000005E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>1.7162E-2</v>
       </c>
@@ -11506,7 +11527,7 @@
         <v>1.15E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>1.8544999999999999E-2</v>
       </c>
@@ -11622,7 +11643,7 @@
         <v>-2.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>1.8794999999999999E-2</v>
       </c>
@@ -11738,7 +11759,7 @@
         <v>-2.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>1.7746999999999999E-2</v>
       </c>
@@ -11854,7 +11875,7 @@
         <v>-4.9600000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>1.9408000000000002E-2</v>
       </c>
@@ -11970,7 +11991,7 @@
         <v>-3.57E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>1.9542E-2</v>
       </c>
@@ -12086,7 +12107,7 @@
         <v>-6.8099999999999996E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>1.9428000000000001E-2</v>
       </c>
@@ -12202,7 +12223,7 @@
         <v>-3.9100000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>1.9304000000000002E-2</v>
       </c>
@@ -12318,7 +12339,7 @@
         <v>-7.7200000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>1.8776999999999999E-2</v>
       </c>
@@ -12434,7 +12455,7 @@
         <v>-8.0500000000000005E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>1.7734E-2</v>
       </c>
@@ -12550,7 +12571,7 @@
         <v>-9.6900000000000003E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>1.687E-2</v>
       </c>
@@ -12666,7 +12687,7 @@
         <v>-1.0399999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>1.6438999999999999E-2</v>
       </c>
@@ -12782,7 +12803,7 @@
         <v>-1.196E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>1.4812000000000001E-2</v>
       </c>
@@ -12898,7 +12919,7 @@
         <v>-1.036E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>1.4376E-2</v>
       </c>
@@ -13014,7 +13035,7 @@
         <v>-1.122E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>1.3521E-2</v>
       </c>
@@ -13130,7 +13151,7 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>1.3223E-2</v>
       </c>
@@ -13246,7 +13267,7 @@
         <v>-1.2589999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>1.2425E-2</v>
       </c>
@@ -13362,7 +13383,7 @@
         <v>-1.266E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>1.2128999999999999E-2</v>
       </c>
@@ -13478,7 +13499,7 @@
         <v>-1.3090000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>1.1786E-2</v>
       </c>
@@ -13594,7 +13615,7 @@
         <v>-1.5380000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>1.1355000000000001E-2</v>
       </c>
@@ -13710,7 +13731,7 @@
         <v>-1.562E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>1.1002E-2</v>
       </c>
@@ -13826,7 +13847,7 @@
         <v>-1.6440000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>1.0902999999999999E-2</v>
       </c>
@@ -13942,7 +13963,7 @@
         <v>-1.689E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>1.0442999999999999E-2</v>
       </c>
@@ -14058,7 +14079,7 @@
         <v>-1.7409999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>1.0351000000000001E-2</v>
       </c>
@@ -14174,7 +14195,7 @@
         <v>-1.755E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>9.7699999999999992E-3</v>
       </c>
@@ -14290,7 +14311,7 @@
         <v>-1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>9.4610000000000007E-3</v>
       </c>
@@ -14406,7 +14427,7 @@
         <v>-1.817E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>9.2750000000000003E-3</v>
       </c>
@@ -14522,7 +14543,7 @@
         <v>-1.869E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>8.77E-3</v>
       </c>
@@ -14638,7 +14659,7 @@
         <v>-1.7470000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>8.09E-3</v>
       </c>
@@ -14754,7 +14775,7 @@
         <v>-1.683E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>7.5960000000000003E-3</v>
       </c>
@@ -14870,7 +14891,7 @@
         <v>-1.552E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>7.4619999999999999E-3</v>
       </c>
@@ -14986,7 +15007,7 @@
         <v>-1.4430000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>7.156E-3</v>
       </c>
@@ -15102,7 +15123,7 @@
         <v>-1.3389999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>1.2272999999999999E-2</v>
       </c>
@@ -15218,7 +15239,7 @@
         <v>-1.477E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>1.197E-2</v>
       </c>
@@ -15334,7 +15355,7 @@
         <v>-1.495E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>1.1514999999999999E-2</v>
       </c>
@@ -15450,7 +15471,7 @@
         <v>-1.366E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>1.1035E-2</v>
       </c>
@@ -15566,7 +15587,7 @@
         <v>-1.472E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>1.0789999999999999E-2</v>
       </c>
@@ -15682,7 +15703,7 @@
         <v>-1.5629999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>1.0756E-2</v>
       </c>
@@ -15798,7 +15819,7 @@
         <v>-1.5610000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>1.0369E-2</v>
       </c>
@@ -15914,7 +15935,7 @@
         <v>-1.9170000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>1.0259000000000001E-2</v>
       </c>
@@ -16030,7 +16051,7 @@
         <v>-1.951E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>1.0055E-2</v>
       </c>
@@ -16146,7 +16167,7 @@
         <v>-2.0630000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>1.0125E-2</v>
       </c>
@@ -16262,7 +16283,7 @@
         <v>-2.2160000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>1.014E-2</v>
       </c>
@@ -16378,7 +16399,7 @@
         <v>-2.307E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>1.0099E-2</v>
       </c>
@@ -16494,7 +16515,7 @@
         <v>-2.2820000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -16610,7 +16631,7 @@
         <v>-2.4030000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>9.6729999999999993E-3</v>
       </c>
@@ -16726,7 +16747,7 @@
         <v>-2.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>9.6229999999999996E-3</v>
       </c>
@@ -16842,7 +16863,7 @@
         <v>-2.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>9.3980000000000001E-3</v>
       </c>
@@ -16958,7 +16979,7 @@
         <v>-2.3839999999999998E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>8.7889999999999999E-3</v>
       </c>
@@ -17074,7 +17095,7 @@
         <v>-2.4759999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>9.0290000000000006E-3</v>
       </c>
@@ -17190,7 +17211,7 @@
         <v>-2.5179999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>8.914E-3</v>
       </c>
@@ -17306,7 +17327,7 @@
         <v>-2.4719999999999998E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>8.3300000000000006E-3</v>
       </c>
@@ -17422,7 +17443,7 @@
         <v>-2.5110000000000002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>8.1399999999999997E-3</v>
       </c>
@@ -17538,7 +17559,7 @@
         <v>-2.3800000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>8.097E-3</v>
       </c>
@@ -17654,7 +17675,7 @@
         <v>-2.307E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>8.1810000000000008E-3</v>
       </c>
@@ -17770,7 +17791,7 @@
         <v>-2.3779999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>8.3250000000000008E-3</v>
       </c>
@@ -17886,7 +17907,7 @@
         <v>-2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>8.0590000000000002E-3</v>
       </c>
@@ -18002,7 +18023,7 @@
         <v>-2.0950000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>7.9349999999999993E-3</v>
       </c>
@@ -18118,7 +18139,7 @@
         <v>-2.0990000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>7.8100000000000001E-3</v>
       </c>
@@ -18234,7 +18255,7 @@
         <v>-1.9849999999999998E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>7.9570000000000005E-3</v>
       </c>
@@ -18350,7 +18371,7 @@
         <v>-2.0830000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>8.1779999999999995E-3</v>
       </c>
@@ -18466,7 +18487,7 @@
         <v>-2.006E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>8.5299999999999994E-3</v>
       </c>
@@ -18582,7 +18603,7 @@
         <v>-1.9910000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>8.3750000000000005E-3</v>
       </c>
@@ -18698,7 +18719,7 @@
         <v>-2.3340000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>9.0229999999999998E-3</v>
       </c>
@@ -18814,7 +18835,7 @@
         <v>-2.287E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>9.4199999999999996E-3</v>
       </c>
@@ -18930,7 +18951,7 @@
         <v>-2.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>8.6320000000000008E-3</v>
       </c>
@@ -19052,22 +19073,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AJ85" sqref="AJ85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="10.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="27" max="38" width="10.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.85546875" style="41"/>
+    <col min="1" max="25" width="10.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="27" max="38" width="10.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="41">
         <v>2.5741E-2</v>
       </c>
@@ -19183,7 +19204,7 @@
         <v>-5.0829999999999998E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="41">
         <v>2.4738E-2</v>
       </c>
@@ -19299,7 +19320,7 @@
         <v>-8.4290000000000007E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>2.5631999999999999E-2</v>
       </c>
@@ -19415,7 +19436,7 @@
         <v>-1.2567999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2.7165999999999999E-2</v>
       </c>
@@ -19531,7 +19552,7 @@
         <v>-1.486E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>2.7265000000000001E-2</v>
       </c>
@@ -19647,7 +19668,7 @@
         <v>-1.7134E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>2.8046000000000001E-2</v>
       </c>
@@ -19763,7 +19784,7 @@
         <v>-1.7335E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>2.7147000000000001E-2</v>
       </c>
@@ -19879,7 +19900,7 @@
         <v>-1.7018999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>2.4983999999999999E-2</v>
       </c>
@@ -19995,7 +20016,7 @@
         <v>-1.5841000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>2.1911E-2</v>
       </c>
@@ -20111,7 +20132,7 @@
         <v>-1.5483E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>2.0337000000000001E-2</v>
       </c>
@@ -20227,7 +20248,7 @@
         <v>-1.4234E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>1.7994E-2</v>
       </c>
@@ -20343,7 +20364,7 @@
         <v>-1.3554999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>1.6419E-2</v>
       </c>
@@ -20459,7 +20480,7 @@
         <v>-1.2681E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>1.3075E-2</v>
       </c>
@@ -20575,7 +20596,7 @@
         <v>-1.1741E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>1.1006999999999999E-2</v>
       </c>
@@ -20691,7 +20712,7 @@
         <v>-1.0706E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>9.2230000000000003E-3</v>
       </c>
@@ -20807,7 +20828,7 @@
         <v>-1.0295E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>7.9830000000000005E-3</v>
       </c>
@@ -20923,7 +20944,7 @@
         <v>-9.5469999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>6.1130000000000004E-3</v>
       </c>
@@ -21039,7 +21060,7 @@
         <v>-8.8170000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>4.9509999999999997E-3</v>
       </c>
@@ -21155,7 +21176,7 @@
         <v>-8.1419999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>4.1869999999999997E-3</v>
       </c>
@@ -21271,7 +21292,7 @@
         <v>-7.3899999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>3.3660000000000001E-3</v>
       </c>
@@ -21387,7 +21408,7 @@
         <v>-6.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>3.0130000000000001E-3</v>
       </c>
@@ -21503,7 +21524,7 @@
         <v>-6.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>2.6619999999999999E-3</v>
       </c>
@@ -21619,7 +21640,7 @@
         <v>-5.6730000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>2.333E-3</v>
       </c>
@@ -21735,7 +21756,7 @@
         <v>-5.2360000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>1.552E-3</v>
       </c>
@@ -21851,7 +21872,7 @@
         <v>-4.81E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>8.2700000000000004E-4</v>
       </c>
@@ -21967,7 +21988,7 @@
         <v>-4.3579999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>1.11E-4</v>
       </c>
@@ -22083,7 +22104,7 @@
         <v>-4.0039999999999997E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>-6.0499999999999996E-4</v>
       </c>
@@ -22199,7 +22220,7 @@
         <v>-3.7399999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>-1.111E-3</v>
       </c>
@@ -22315,7 +22336,7 @@
         <v>-3.346E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>-1.66E-3</v>
       </c>
@@ -22431,7 +22452,7 @@
         <v>-2.9629999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>-2.1679999999999998E-3</v>
       </c>
@@ -22547,7 +22568,7 @@
         <v>-2.6329999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>-2.5140000000000002E-3</v>
       </c>
@@ -22663,7 +22684,7 @@
         <v>-2.415E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>-3.0219999999999999E-3</v>
       </c>
@@ -22779,7 +22800,7 @@
         <v>-2.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>-3.3479999999999998E-3</v>
       </c>
@@ -22895,7 +22916,7 @@
         <v>-1.7979999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>-3.774E-3</v>
       </c>
@@ -23011,7 +23032,7 @@
         <v>-1.583E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>-3.9659999999999999E-3</v>
       </c>
@@ -23127,7 +23148,7 @@
         <v>-1.389E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>-4.2509999999999996E-3</v>
       </c>
@@ -23243,7 +23264,7 @@
         <v>-1.173E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>-4.5149999999999999E-3</v>
       </c>
@@ -23359,7 +23380,7 @@
         <v>-1.026E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>-4.5659999999999997E-3</v>
       </c>
@@ -23475,7 +23496,7 @@
         <v>-8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>-4.7200000000000002E-3</v>
       </c>
@@ -23591,7 +23612,7 @@
         <v>-7.5900000000000002E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>-4.8510000000000003E-3</v>
       </c>
@@ -23707,7 +23728,7 @@
         <v>-6.8900000000000005E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>-5.0720000000000001E-3</v>
       </c>
@@ -23823,7 +23844,7 @@
         <v>-6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>-5.411E-3</v>
       </c>
@@ -23939,7 +23960,7 @@
         <v>-6.4000000000000005E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>-5.6550000000000003E-3</v>
       </c>
@@ -24055,7 +24076,7 @@
         <v>-6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>-4.287E-3</v>
       </c>
@@ -24171,7 +24192,7 @@
         <v>-1.145E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>-4.4759999999999999E-3</v>
       </c>
@@ -24287,7 +24308,7 @@
         <v>-1.0020000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>-4.6779999999999999E-3</v>
       </c>
@@ -24403,7 +24424,7 @@
         <v>-8.0500000000000005E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>-4.9090000000000002E-3</v>
       </c>
@@ -24519,7 +24540,7 @@
         <v>-5.4500000000000002E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>-5.1919999999999996E-3</v>
       </c>
@@ -24635,7 +24656,7 @@
         <v>-3.5500000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>-5.4999999999999997E-3</v>
       </c>
@@ -24751,7 +24772,7 @@
         <v>-1.25E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>-5.7759999999999999E-3</v>
       </c>
@@ -24867,7 +24888,7 @@
         <v>7.8999999999999996E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>-6.0759999999999998E-3</v>
       </c>
@@ -24983,7 +25004,7 @@
         <v>2.99E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>-6.2979999999999998E-3</v>
       </c>
@@ -25099,7 +25120,7 @@
         <v>4.7199999999999998E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>-6.496E-3</v>
       </c>
@@ -25215,7 +25236,7 @@
         <v>6.2699999999999995E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>-6.7029999999999998E-3</v>
       </c>
@@ -25331,7 +25352,7 @@
         <v>6.9300000000000004E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>-6.8849999999999996E-3</v>
       </c>
@@ -25447,7 +25468,7 @@
         <v>7.4399999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>-7.0299999999999998E-3</v>
       </c>
@@ -25563,7 +25584,7 @@
         <v>8.4400000000000002E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>-7.2570000000000004E-3</v>
       </c>
@@ -25679,7 +25700,7 @@
         <v>8.9899999999999995E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>-7.3759999999999997E-3</v>
       </c>
@@ -25795,7 +25816,7 @@
         <v>9.3999999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>-7.5170000000000002E-3</v>
       </c>
@@ -25911,7 +25932,7 @@
         <v>1.0740000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>-7.6290000000000004E-3</v>
       </c>
@@ -26027,7 +26048,7 @@
         <v>1.1969999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>-7.7869999999999997E-3</v>
       </c>
@@ -26143,7 +26164,7 @@
         <v>1.181E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>-7.9679999999999994E-3</v>
       </c>
@@ -26259,7 +26280,7 @@
         <v>1.2199999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>-8.1150000000000007E-3</v>
       </c>
@@ -26375,7 +26396,7 @@
         <v>1.1299999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>-8.1799999999999998E-3</v>
       </c>
@@ -26491,7 +26512,7 @@
         <v>1.013E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>-8.2190000000000006E-3</v>
       </c>
@@ -26607,7 +26628,7 @@
         <v>8.4900000000000004E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>-8.3199999999999993E-3</v>
       </c>
@@ -26723,7 +26744,7 @@
         <v>6.8199999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>-8.3680000000000004E-3</v>
       </c>
@@ -26839,7 +26860,7 @@
         <v>4.7899999999999999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>-8.5620000000000002E-3</v>
       </c>
@@ -26955,7 +26976,7 @@
         <v>2.6200000000000003E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>-8.652E-3</v>
       </c>
@@ -27071,7 +27092,7 @@
         <v>5.1999999999999997E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>-8.5070000000000007E-3</v>
       </c>
@@ -27187,7 +27208,7 @@
         <v>-6.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>-8.3510000000000008E-3</v>
       </c>
@@ -27303,7 +27324,7 @@
         <v>-6.2000000000000003E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>-8.4790000000000004E-3</v>
       </c>
@@ -27419,7 +27440,7 @@
         <v>-1.5699999999999999E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>-8.4460000000000004E-3</v>
       </c>
@@ -27535,7 +27556,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>-8.4899999999999993E-3</v>
       </c>
@@ -27651,7 +27672,7 @@
         <v>-2.1800000000000001E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>-8.6119999999999999E-3</v>
       </c>
@@ -27767,7 +27788,7 @@
         <v>-1.76E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>-8.6090000000000003E-3</v>
       </c>
@@ -27883,7 +27904,7 @@
         <v>-2.4899999999999998E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>-8.6300000000000005E-3</v>
       </c>
